--- a/tests/test1/d30/ЛМ, 0.2.xlsx
+++ b/tests/test1/d30/ЛМ, 0.2.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.002595400000004133</v>
+        <v>0.002505000000006419</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.004058499999999299</v>
+        <v>0.002449499999997329</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002104500000001508</v>
+        <v>0.002011599999995894</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.00391739999999885</v>
+        <v>0.002575799999995354</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002079800000004184</v>
+        <v>0.002036499999995556</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.00234710000000149</v>
+        <v>0.003631599999998514</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.00223720000000327</v>
+        <v>0.00211869999999692</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.001852900000002933</v>
+        <v>0.001880399999997451</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.003243699999998739</v>
+        <v>0.002742699999998877</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001840099999995459</v>
+        <v>0.001777900000000443</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.00356580000000406</v>
+        <v>0.003581400000001622</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.001877099999994414</v>
+        <v>0.001842700000004527</v>
       </c>
       <c r="Y13" t="n">
         <v>7</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002057999999998117</v>
+        <v>0.003521399999996788</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002270599999995682</v>
+        <v>0.001986800000004507</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002583099999995397</v>
+        <v>0.002452800000000366</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002184599999999648</v>
+        <v>0.002014500000001362</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.001826699999995185</v>
+        <v>0.001766899999999794</v>
       </c>
       <c r="Y18" t="n">
         <v>7</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.003225600000000384</v>
+        <v>0.002277800000001662</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002594900000005396</v>
+        <v>0.002417200000003561</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002277599999999325</v>
+        <v>0.003226400000002627</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002855599999996628</v>
+        <v>0.002730499999998415</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002040999999998405</v>
+        <v>0.001753400000005456</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.001895199999999875</v>
+        <v>0.001779299999995487</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.002891999999995676</v>
+        <v>0.002677299999994887</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.003599499999999978</v>
+        <v>0.002044200000000274</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.002328400000003228</v>
+        <v>0.002241399999995508</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002961499999997841</v>
+        <v>0.003837600000004215</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002611300000005201</v>
+        <v>0.002474999999996896</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002938500000006172</v>
+        <v>0.005200399999999661</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002954899999998872</v>
+        <v>0.002091199999995297</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.003205700000002309</v>
+        <v>0.00422749999999894</v>
       </c>
       <c r="Y32" t="n">
         <v>8</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.004248199999999258</v>
+        <v>0.002490200000003995</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002151400000002468</v>
+        <v>0.004433799999993937</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.003726600000000246</v>
+        <v>0.001827699999999766</v>
       </c>
       <c r="Y35" t="n">
         <v>7</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001927100000003179</v>
+        <v>0.001808400000001598</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002120499999996639</v>
+        <v>0.002019599999997013</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.002413000000004217</v>
+        <v>0.002186100000002966</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002139400000004343</v>
+        <v>0.001998399999997957</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002643399999996632</v>
+        <v>0.002443900000002941</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002620999999997764</v>
+        <v>0.003142000000003975</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002160600000003399</v>
+        <v>0.001965800000000684</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002147200000003124</v>
+        <v>0.002242999999999995</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.00436549999999869</v>
+        <v>0.002524000000001081</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.001876499999994508</v>
+        <v>0.002237299999997333</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002200000000001978</v>
+        <v>0.001989299999998195</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001928200000001823</v>
+        <v>0.001741299999999057</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.00235359999999929</v>
+        <v>0.002316700000001504</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.001979499999997358</v>
+        <v>0.001748599999999101</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001973399999997127</v>
+        <v>0.001809500000000241</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.003437900000001548</v>
+        <v>0.001983100000003901</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.001961100000002602</v>
+        <v>0.002945900000000279</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002161800000003211</v>
+        <v>0.002089499999996747</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002172399999999186</v>
+        <v>0.002058900000001529</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002381400000004419</v>
+        <v>0.002242199999997752</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.003835299999998654</v>
+        <v>0.002209299999996972</v>
       </c>
       <c r="Y56" t="n">
         <v>8</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.00335150000000084</v>
+        <v>0.003222199999996178</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.003372200000001158</v>
+        <v>0.001776299999995956</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.00276299999999452</v>
+        <v>0.001960799999999097</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002462399999998865</v>
+        <v>0.00228890000000348</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.0021388999999985</v>
+        <v>0.002015499999998838</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.004521400000001563</v>
+        <v>0.002106200000000058</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002187599999999179</v>
+        <v>0.002009399999998607</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001825300000000141</v>
+        <v>0.001791499999995949</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002421599999998136</v>
+        <v>0.002273899999998719</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002301299999999173</v>
+        <v>0.002256799999997838</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002351399999994896</v>
+        <v>0.002047599999997374</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002122599999999863</v>
+        <v>0.002033900000000699</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.004123799999995015</v>
+        <v>0.004383199999999476</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002161099999995031</v>
+        <v>0.002473599999994747</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.004047999999997387</v>
+        <v>0.003539700000004586</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.00237549999999942</v>
+        <v>0.002429100000000517</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002125799999994626</v>
+        <v>0.002032200000002149</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001908899999996549</v>
+        <v>0.00183150000000154</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.00261960000000272</v>
+        <v>0.00245830000000069</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002448299999997516</v>
+        <v>0.002342699999999809</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002120300000001407</v>
+        <v>0.002020000000001687</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002722099999999728</v>
+        <v>0.003493800000001102</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.002338999999999203</v>
+        <v>0.002294900000002542</v>
       </c>
       <c r="Y79" t="n">
         <v>9</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002502599999999688</v>
+        <v>0.00177950000000493</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002324500000000285</v>
+        <v>0.002396099999998569</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.004458199999994861</v>
+        <v>0.002607300000001089</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002073500000001616</v>
+        <v>0.002097199999994359</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002353999999996859</v>
+        <v>0.002366699999996058</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002396199999999737</v>
+        <v>0.003919100000004505</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001957099999998491</v>
+        <v>0.001811899999999866</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002656500000000506</v>
+        <v>0.002494099999999833</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002116100000002064</v>
+        <v>0.002067400000001385</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.00345590000000584</v>
+        <v>0.002690900000004603</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002631499999999676</v>
+        <v>0.002514599999997813</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.001882299999998338</v>
+        <v>0.001793200000001605</v>
       </c>
       <c r="Y91" t="n">
         <v>7</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002157199999999193</v>
+        <v>0.003853800000001684</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002092900000000952</v>
+        <v>0.002037500000000136</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.003258799999997564</v>
+        <v>0.002476999999998952</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002576699999998766</v>
+        <v>0.002596900000000346</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002825399999998979</v>
+        <v>0.002469200000000171</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002478400000001102</v>
+        <v>0.002064000000004285</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002367299999995964</v>
+        <v>0.002320900000000847</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.002879199999995308</v>
+        <v>0.00439360000000022</v>
       </c>
       <c r="Y99" t="n">
         <v>11</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002358299999997371</v>
+        <v>0.002259500000000969</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.00269010000000236</v>
+        <v>0.003509600000001001</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>

--- a/tests/test1/d30/ЛМ, 0.2.xlsx
+++ b/tests/test1/d30/ЛМ, 0.2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.002505000000006419</v>
+        <v>0.005095799999992323</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002449499999997329</v>
+        <v>0.003220200000001228</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002011599999995894</v>
+        <v>0.002203000000008615</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.002575799999995354</v>
+        <v>0.004841799999994123</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002036499999995556</v>
+        <v>0.003765700000002425</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.003631599999998514</v>
+        <v>0.002545499999996537</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.00211869999999692</v>
+        <v>0.003633000000007769</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.001880399999997451</v>
+        <v>0.001928899999995792</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.002742699999998877</v>
+        <v>0.00297419999999704</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001777900000000443</v>
+        <v>0.001990599999999176</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.003581400000001622</v>
+        <v>0.002207800000007865</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.001842700000004527</v>
+        <v>0.002313499999999635</v>
       </c>
       <c r="Y13" t="n">
         <v>7</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.003521399999996788</v>
+        <v>0.002214599999987854</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.001986800000004507</v>
+        <v>0.003942100000003279</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002452800000000366</v>
+        <v>0.002853400000006445</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002014500000001362</v>
+        <v>0.003191299999997455</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.001766899999999794</v>
+        <v>0.002128700000000094</v>
       </c>
       <c r="Y18" t="n">
         <v>7</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002277800000001662</v>
+        <v>0.002577999999999747</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002417200000003561</v>
+        <v>0.002893700000001331</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.003226400000002627</v>
+        <v>0.002079199999997172</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002730499999998415</v>
+        <v>0.003014100000001463</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001753400000005456</v>
+        <v>0.002041399999995974</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.001779299999995487</v>
+        <v>0.002552499999993074</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.002677299999994887</v>
+        <v>0.003016600000009362</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.002044200000000274</v>
+        <v>0.004025699999999688</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.002241399999995508</v>
+        <v>0.00252129999999795</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.003837600000004215</v>
+        <v>0.004206899999999791</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002474999999996896</v>
+        <v>0.002756699999991952</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.005200399999999661</v>
+        <v>0.002430799999999067</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002091199999995297</v>
+        <v>0.002244200000006913</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.00422749999999894</v>
+        <v>0.002176800000000867</v>
       </c>
       <c r="Y32" t="n">
         <v>8</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002490200000003995</v>
+        <v>0.002712800000011839</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.004433799999993937</v>
+        <v>0.00217859999999348</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.001827699999999766</v>
+        <v>0.00213649999999177</v>
       </c>
       <c r="Y35" t="n">
         <v>7</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001808400000001598</v>
+        <v>0.001918200000005754</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002019599999997013</v>
+        <v>0.003254200000000651</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.002186100000002966</v>
+        <v>0.002445300000005091</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.001998399999997957</v>
+        <v>0.002162999999995918</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002443900000002941</v>
+        <v>0.00271200000000249</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.003142000000003975</v>
+        <v>0.002675400000001105</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.001965800000000684</v>
+        <v>0.002261099999998351</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002242999999999995</v>
+        <v>0.002192600000000766</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002524000000001081</v>
+        <v>0.004154200000002106</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002237299999997333</v>
+        <v>0.001916700000009541</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.001989299999998195</v>
+        <v>0.00390370000000928</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001741299999999057</v>
+        <v>0.001908299999996643</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002316700000001504</v>
+        <v>0.002481099999997127</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.001748599999999101</v>
+        <v>0.002036099999997987</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001809500000000241</v>
+        <v>0.001989600000001701</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.001983100000003901</v>
+        <v>0.002429700000007529</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002945900000000279</v>
+        <v>0.00195370000000139</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002089499999996747</v>
+        <v>0.003985400000004802</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002058900000001529</v>
+        <v>0.002152099999989332</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002242199999997752</v>
+        <v>0.002460699999986105</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002209299999996972</v>
+        <v>0.002252699999999663</v>
       </c>
       <c r="Y56" t="n">
         <v>8</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.003222199999996178</v>
+        <v>0.001936900000004016</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001776299999995956</v>
+        <v>0.00196809999999914</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001960799999999097</v>
+        <v>0.001926600000004441</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.00228890000000348</v>
+        <v>0.004237700000004452</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002015499999998838</v>
+        <v>0.002189399999991792</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002106200000000058</v>
+        <v>0.002757299999998963</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002009399999998607</v>
+        <v>0.002218099999993228</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001791499999995949</v>
+        <v>0.001953900000003728</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002273899999998719</v>
+        <v>0.002450400000000741</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002256799999997838</v>
+        <v>0.002434800000003179</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002047599999997374</v>
+        <v>0.002265100000002462</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002033900000000699</v>
+        <v>0.002172700000002692</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.004383199999999476</v>
+        <v>0.004626900000005207</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002473599999994747</v>
+        <v>0.002156300000009992</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.003539700000004586</v>
+        <v>0.003660199999998781</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002429100000000517</v>
+        <v>0.002545800000007148</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002032200000002149</v>
+        <v>0.002193399999995904</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.00183150000000154</v>
+        <v>0.001992999999998801</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.00245830000000069</v>
+        <v>0.002726899999998977</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002342699999999809</v>
+        <v>0.00251450000000375</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002020000000001687</v>
+        <v>0.002161299999997368</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.003493800000001102</v>
+        <v>0.004703899999995542</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.002294900000002542</v>
+        <v>0.002433100000004629</v>
       </c>
       <c r="Y79" t="n">
         <v>9</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.00177950000000493</v>
+        <v>0.003573099999996998</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002396099999998569</v>
+        <v>0.002431299999997805</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002607300000001089</v>
+        <v>0.002690000000001191</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002097199999994359</v>
+        <v>0.002197499999994079</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002366699999996058</v>
+        <v>0.002441000000004578</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.003919100000004505</v>
+        <v>0.002465299999997228</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001811899999999866</v>
+        <v>0.001979700000006801</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002494099999999833</v>
+        <v>0.004350999999999772</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002067400000001385</v>
+        <v>0.00219270000000904</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002690900000004603</v>
+        <v>0.004495700000006764</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002514599999997813</v>
+        <v>0.002701900000005253</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.001793200000001605</v>
+        <v>0.001930599999994342</v>
       </c>
       <c r="Y91" t="n">
         <v>7</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.003853800000001684</v>
+        <v>0.002243699999993964</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002037500000000136</v>
+        <v>0.002180100000003904</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002476999999998952</v>
+        <v>0.002746300000012525</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002596900000000346</v>
+        <v>0.002733699999993178</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002469200000000171</v>
+        <v>0.002961999999996578</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002064000000004285</v>
+        <v>0.002355199999996671</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002320900000000847</v>
+        <v>0.003780300000002512</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.00439360000000022</v>
+        <v>0.003329300000004309</v>
       </c>
       <c r="Y99" t="n">
         <v>11</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002259500000000969</v>
+        <v>0.002647899999999481</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.003509600000001001</v>
+        <v>0.00244389999998873</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>

--- a/tests/test1/d30/ЛМ, 0.2.xlsx
+++ b/tests/test1/d30/ЛМ, 0.2.xlsx
@@ -612,25 +612,25 @@
         <v>30.59236687127027</v>
       </c>
       <c r="P2" t="n">
-        <v>29.71765575448927</v>
+        <v>29.71765575448926</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01545990128017129</v>
+        <v>0.01545990128017306</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3033075313836593</v>
+        <v>0.3033075313837429</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1843982670311303</v>
+        <v>0.1843982670311823</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0873393290827134</v>
+        <v>0.08733932908271738</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03994497529494376</v>
+        <v>0.0399449752949437</v>
       </c>
       <c r="V2" t="n">
-        <v>0.08742434258153561</v>
+        <v>0.08742434258153403</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.005095799999992323</v>
+        <v>0.00211360000000127</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -664,13 +664,13 @@
         <v>0.003704487042195559</v>
       </c>
       <c r="F3" t="n">
-        <v>29.64091277869856</v>
+        <v>29.64091277869857</v>
       </c>
       <c r="G3" t="n">
-        <v>75.19631798717765</v>
+        <v>75.19631798717762</v>
       </c>
       <c r="H3" t="n">
-        <v>11.4263193872491</v>
+        <v>11.42631938724911</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -694,25 +694,25 @@
         <v>25.29742358921402</v>
       </c>
       <c r="P3" t="n">
-        <v>33.76607489108324</v>
+        <v>33.76607489108326</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01534243717270328</v>
+        <v>0.0153424371727034</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2954423740051366</v>
+        <v>0.2954423740051613</v>
       </c>
       <c r="S3" t="n">
-        <v>0.176365503810903</v>
+        <v>0.1763655038109149</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1396425928577664</v>
+        <v>0.1396425928577678</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03976159053207416</v>
+        <v>0.03976159053207403</v>
       </c>
       <c r="V3" t="n">
-        <v>0.08504966052352597</v>
+        <v>0.08504966052352154</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.003220200000001228</v>
+        <v>0.002031199999997568</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -746,13 +746,13 @@
         <v>0.02539642028270606</v>
       </c>
       <c r="F4" t="n">
-        <v>30.23179715644538</v>
+        <v>30.23179715644539</v>
       </c>
       <c r="G4" t="n">
-        <v>84.4075424361443</v>
+        <v>84.40754243614417</v>
       </c>
       <c r="H4" t="n">
-        <v>3.235614069030036</v>
+        <v>3.235614069030039</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -776,25 +776,25 @@
         <v>10.22225981959368</v>
       </c>
       <c r="P4" t="n">
-        <v>28.44533203806835</v>
+        <v>28.44533203806836</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01399453014778043</v>
+        <v>0.01399453014777979</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2265489759449984</v>
+        <v>0.2265489759449992</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07220965564230215</v>
+        <v>0.07220965564229807</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2779475813304976</v>
+        <v>0.2779475813304823</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04219575815121355</v>
+        <v>0.04219575815121351</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2244772163176446</v>
+        <v>0.2244772163176391</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002203000000008615</v>
+        <v>0.001826400000002337</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -828,10 +828,10 @@
         <v>0.04641083666558258</v>
       </c>
       <c r="F5" t="n">
-        <v>29.61846970990044</v>
+        <v>29.61846970990045</v>
       </c>
       <c r="G5" t="n">
-        <v>99.96136552776147</v>
+        <v>99.96136552776142</v>
       </c>
       <c r="H5" t="n">
         <v>11.2352307701076</v>
@@ -858,25 +858,25 @@
         <v>30.39955193188943</v>
       </c>
       <c r="P5" t="n">
-        <v>28.60217280132554</v>
+        <v>28.60217280132555</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01485340984389026</v>
+        <v>0.01485340984388967</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2867373103328238</v>
+        <v>0.2867373103328414</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1728045848883698</v>
+        <v>0.1728045848883742</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08505553908654848</v>
+        <v>0.08505553908654462</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04177066955454987</v>
+        <v>0.04177066955454973</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1179662691713114</v>
+        <v>0.1179662691713088</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.004841799999994123</v>
+        <v>0.002015300000000053</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -910,13 +910,13 @@
         <v>0.001442471662381439</v>
       </c>
       <c r="F6" t="n">
-        <v>30.0402958738507</v>
+        <v>30.04029587385069</v>
       </c>
       <c r="G6" t="n">
         <v>174.3502467252957</v>
       </c>
       <c r="H6" t="n">
-        <v>9.741787127128891</v>
+        <v>9.741787127128887</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>8.365628460925734</v>
       </c>
       <c r="P6" t="n">
-        <v>15.96039818608574</v>
+        <v>15.96039818608573</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01156629115354883</v>
+        <v>0.01156629115354894</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1608143977081615</v>
+        <v>0.1608143977081569</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03892809745403399</v>
+        <v>0.03892809745403488</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2285808005373171</v>
+        <v>0.2285808005373154</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03763318346854512</v>
+        <v>0.03763318346854515</v>
       </c>
       <c r="V6" t="n">
-        <v>0.07973105625665586</v>
+        <v>0.07973105625665547</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.003765700000002425</v>
+        <v>0.001742100000001301</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -995,10 +995,10 @@
         <v>30.26405386707703</v>
       </c>
       <c r="G7" t="n">
-        <v>39.81195494242986</v>
+        <v>39.81195494242988</v>
       </c>
       <c r="H7" t="n">
-        <v>13.74685590669554</v>
+        <v>13.74685590669553</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1019,28 +1019,28 @@
         <v>41.39368334310793</v>
       </c>
       <c r="O7" t="n">
-        <v>16.20254223584588</v>
+        <v>16.20254223584589</v>
       </c>
       <c r="P7" t="n">
         <v>41.98692869734417</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01611312841459837</v>
+        <v>0.01611312841459813</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3165164722331746</v>
+        <v>0.3165164722331791</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1563965023716858</v>
+        <v>0.1563965023716848</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2830200373999598</v>
+        <v>0.2830200373999534</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03836836194628703</v>
+        <v>0.03836836194628702</v>
       </c>
       <c r="V7" t="n">
-        <v>0.08837729168713625</v>
+        <v>0.08837729168713558</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002545499999996537</v>
+        <v>0.00247410000000059</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>161.6846582168204</v>
       </c>
       <c r="H8" t="n">
-        <v>7.139145969998992</v>
+        <v>7.139145969998993</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>11.4221020881744</v>
       </c>
       <c r="P8" t="n">
-        <v>19.53079033108556</v>
+        <v>19.53079033108557</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0127954951998843</v>
+        <v>0.01279549519988449</v>
       </c>
       <c r="R8" t="n">
-        <v>0.171617004329387</v>
+        <v>0.1716170043293874</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0558153335565495</v>
+        <v>0.05581533355655122</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1980180656145115</v>
+        <v>0.1980180656145137</v>
       </c>
       <c r="U8" t="n">
         <v>0.03714536807265921</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1109155219485791</v>
+        <v>0.1109155219485788</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.003633000000007769</v>
+        <v>0.00159890000000118</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1156,13 +1156,13 @@
         <v>0.0227527943418932</v>
       </c>
       <c r="F9" t="n">
-        <v>29.49153910137932</v>
+        <v>29.49153910137931</v>
       </c>
       <c r="G9" t="n">
-        <v>13.64245215481583</v>
+        <v>13.64245215481582</v>
       </c>
       <c r="H9" t="n">
-        <v>11.91063804821096</v>
+        <v>11.91063804821097</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1189,22 +1189,22 @@
         <v>41.01819698286841</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01442904623523006</v>
+        <v>0.01442904623522997</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3205504711276405</v>
+        <v>0.3205504711276376</v>
       </c>
       <c r="S9" t="n">
-        <v>0.07428983492912114</v>
+        <v>0.07428983492912122</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5032151574053885</v>
+        <v>0.5032151574053839</v>
       </c>
       <c r="U9" t="n">
         <v>0.0379485878381685</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1421704939557259</v>
+        <v>0.1421704939557241</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.001928899999995792</v>
+        <v>0.001423299999999017</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1238,13 +1238,13 @@
         <v>359.9854423381955</v>
       </c>
       <c r="F10" t="n">
-        <v>30.24628966319155</v>
+        <v>30.24628966319154</v>
       </c>
       <c r="G10" t="n">
         <v>156.97575543414</v>
       </c>
       <c r="H10" t="n">
-        <v>14.73080439272898</v>
+        <v>14.73080439272897</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1265,28 +1265,28 @@
         <v>13.7482000025743</v>
       </c>
       <c r="O10" t="n">
-        <v>35.40893976242629</v>
+        <v>35.40893976242628</v>
       </c>
       <c r="P10" t="n">
         <v>13.93938238039227</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01410024153590544</v>
+        <v>0.01410024153590535</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2481519942173732</v>
+        <v>0.2481519942173728</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1066595067099521</v>
+        <v>0.1066595067099517</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08790799481892543</v>
+        <v>0.08790799481892574</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04378910040267544</v>
+        <v>0.04378910040267542</v>
       </c>
       <c r="V10" t="n">
-        <v>0.04839820513374897</v>
+        <v>0.04839820513374022</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.00297419999999704</v>
+        <v>0.003030799999997669</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1320,13 +1320,13 @@
         <v>359.9923955811159</v>
       </c>
       <c r="F11" t="n">
-        <v>30.27829592922871</v>
+        <v>30.27829592922872</v>
       </c>
       <c r="G11" t="n">
         <v>1.961296326384796</v>
       </c>
       <c r="H11" t="n">
-        <v>8.743837677336883</v>
+        <v>8.743837677336872</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1350,25 +1350,25 @@
         <v>2.290014656227616</v>
       </c>
       <c r="P11" t="n">
-        <v>38.17888220387661</v>
+        <v>38.1788822038766</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0120898052369719</v>
+        <v>0.01208980523697196</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5113312833541571</v>
+        <v>0.5113312833541611</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03982672117853277</v>
+        <v>0.03982672117853284</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8071570719493169</v>
+        <v>0.8071570719493238</v>
       </c>
       <c r="U11" t="n">
         <v>0.04188072938285353</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0837162792559282</v>
+        <v>0.08371627925593178</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001990599999999176</v>
+        <v>0.001478800000001002</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1405,10 +1405,10 @@
         <v>30.0323748865667</v>
       </c>
       <c r="G12" t="n">
-        <v>139.0280146258844</v>
+        <v>139.0280146258845</v>
       </c>
       <c r="H12" t="n">
-        <v>3.280254806282558</v>
+        <v>3.280254806282564</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1429,28 +1429,28 @@
         <v>24.73231265962071</v>
       </c>
       <c r="O12" t="n">
-        <v>8.706218836649031</v>
+        <v>8.706218836649018</v>
       </c>
       <c r="P12" t="n">
         <v>24.72892117059027</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01309674447979623</v>
+        <v>0.01309674447979648</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2076458967537756</v>
+        <v>0.2076458967537758</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0567484719277216</v>
+        <v>0.05674847192772343</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2842487958531889</v>
+        <v>0.2842487958531938</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03558381711058331</v>
+        <v>0.0355838171105833</v>
       </c>
       <c r="V12" t="n">
-        <v>0.03314440508417251</v>
+        <v>0.03314440508417979</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.002207800000007865</v>
+        <v>0.00156159999999872</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1484,13 +1484,13 @@
         <v>0.01032642345455006</v>
       </c>
       <c r="F13" t="n">
-        <v>29.50792073268021</v>
+        <v>29.5079207326802</v>
       </c>
       <c r="G13" t="n">
-        <v>31.79330916328734</v>
+        <v>31.79330916328726</v>
       </c>
       <c r="H13" t="n">
-        <v>3.143994966239295</v>
+        <v>3.143994966239302</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1514,25 +1514,25 @@
         <v>6.000073367896673</v>
       </c>
       <c r="P13" t="n">
-        <v>30.26405364019755</v>
+        <v>30.26405364019756</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01295893310629066</v>
+        <v>0.01295893310629101</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2657556549767555</v>
+        <v>0.2657556549767596</v>
       </c>
       <c r="S13" t="n">
-        <v>0.05301184125238864</v>
+        <v>0.05301184125238929</v>
       </c>
       <c r="T13" t="n">
-        <v>0.4135539731576885</v>
+        <v>0.4135539731577061</v>
       </c>
       <c r="U13" t="n">
         <v>0.0385190079708972</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1302640013647456</v>
+        <v>0.1302640013647419</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002313499999999635</v>
+        <v>0.001661099999999749</v>
       </c>
       <c r="Y13" t="n">
         <v>7</v>
@@ -1566,13 +1566,13 @@
         <v>0.01785205691768391</v>
       </c>
       <c r="F14" t="n">
-        <v>30.40484395983609</v>
+        <v>30.40484395983608</v>
       </c>
       <c r="G14" t="n">
-        <v>27.58715325164133</v>
+        <v>27.5871532516413</v>
       </c>
       <c r="H14" t="n">
-        <v>12.24579859257374</v>
+        <v>12.24579859257375</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1593,28 +1593,28 @@
         <v>40.75574104258677</v>
       </c>
       <c r="O14" t="n">
-        <v>11.07023492558427</v>
+        <v>11.07023492558426</v>
       </c>
       <c r="P14" t="n">
-        <v>41.58655064318679</v>
+        <v>41.5865506431868</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01568181205044225</v>
+        <v>0.01568181205044209</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3042895034370501</v>
+        <v>0.3042895034370596</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1137833775060646</v>
+        <v>0.1137833775060686</v>
       </c>
       <c r="T14" t="n">
         <v>0.3632574292213107</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04027866536495773</v>
+        <v>0.04027866536495772</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1210232362904819</v>
+        <v>0.1210232362904865</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002214599999987854</v>
+        <v>0.001705199999999962</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1654,7 +1654,7 @@
         <v>139.6509616589121</v>
       </c>
       <c r="H15" t="n">
-        <v>5.854736946992394</v>
+        <v>5.854736946992393</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1675,28 +1675,28 @@
         <v>22.72893730129499</v>
       </c>
       <c r="O15" t="n">
-        <v>14.50592994665288</v>
+        <v>14.50592994665286</v>
       </c>
       <c r="P15" t="n">
         <v>22.83301840367482</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01375938478567552</v>
+        <v>0.01375938478567549</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1998988888159487</v>
+        <v>0.1998988888159553</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0758653540265653</v>
+        <v>0.07586535402656513</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1739176974911684</v>
+        <v>0.1739176974911669</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03508952198193166</v>
+        <v>0.0350895219819316</v>
       </c>
       <c r="V15" t="n">
-        <v>0.02347574277194017</v>
+        <v>0.02347574277193836</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.003942100000003279</v>
+        <v>0.001642399999997934</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1730,7 +1730,7 @@
         <v>0.03690258517475969</v>
       </c>
       <c r="F16" t="n">
-        <v>29.90735563238039</v>
+        <v>29.9073556323804</v>
       </c>
       <c r="G16" t="n">
         <v>92.34379740472363</v>
@@ -1760,25 +1760,25 @@
         <v>30.7121376955958</v>
       </c>
       <c r="P16" t="n">
-        <v>31.04496060748522</v>
+        <v>31.04496060748523</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01523172446971022</v>
+        <v>0.0152317244697084</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3056128354333017</v>
+        <v>0.3056128354332183</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1928266687089679</v>
+        <v>0.1928266687089119</v>
       </c>
       <c r="T16" t="n">
-        <v>0.09278158374767646</v>
+        <v>0.09278158374766941</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04154901063842947</v>
+        <v>0.04154901063842949</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01913933375636259</v>
+        <v>0.01913933375636148</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002853400000006445</v>
+        <v>0.001957400000001996</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1812,13 +1812,13 @@
         <v>0.01073808846166195</v>
       </c>
       <c r="F17" t="n">
-        <v>29.95004025570822</v>
+        <v>29.95004025570821</v>
       </c>
       <c r="G17" t="n">
-        <v>153.0660032309681</v>
+        <v>153.0660032309682</v>
       </c>
       <c r="H17" t="n">
-        <v>5.158005592993332</v>
+        <v>5.158005592993333</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1845,22 +1845,22 @@
         <v>22.17549896212823</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01303070954334438</v>
+        <v>0.01303070954334445</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1877052468182546</v>
+        <v>0.1877052468182553</v>
       </c>
       <c r="S17" t="n">
-        <v>0.05789839224713311</v>
+        <v>0.05789839224713337</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2324321628776337</v>
+        <v>0.2324321628776355</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04006462752498868</v>
+        <v>0.04006462752498861</v>
       </c>
       <c r="V17" t="n">
-        <v>0.01899107926650334</v>
+        <v>0.01899107926650572</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.003191299999997455</v>
+        <v>0.002044900000001348</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1894,13 +1894,13 @@
         <v>0.008541859733694044</v>
       </c>
       <c r="F18" t="n">
-        <v>29.47972728359289</v>
+        <v>29.4797272835929</v>
       </c>
       <c r="G18" t="n">
-        <v>40.55432839908291</v>
+        <v>40.55432839908295</v>
       </c>
       <c r="H18" t="n">
-        <v>8.917714500006637</v>
+        <v>8.91771450000663</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1924,25 +1924,25 @@
         <v>13.08306471975707</v>
       </c>
       <c r="P18" t="n">
-        <v>35.92662108427209</v>
+        <v>35.92662108427208</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01490605798239571</v>
+        <v>0.01490605798239594</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2639795799217448</v>
+        <v>0.2639795799217483</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1078918248303717</v>
+        <v>0.107891824830376</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2753906166663733</v>
+        <v>0.2753906166663808</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0341166787802392</v>
+        <v>0.03411667878023925</v>
       </c>
       <c r="V18" t="n">
-        <v>0.1535806360771193</v>
+        <v>0.1535806360771223</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002128700000000094</v>
+        <v>0.001459099999998159</v>
       </c>
       <c r="Y18" t="n">
         <v>7</v>
@@ -1976,13 +1976,13 @@
         <v>359.9641793663061</v>
       </c>
       <c r="F19" t="n">
-        <v>29.92302183755942</v>
+        <v>29.9230218375594</v>
       </c>
       <c r="G19" t="n">
-        <v>52.02838755608026</v>
+        <v>52.02838755608028</v>
       </c>
       <c r="H19" t="n">
-        <v>9.577007401838555</v>
+        <v>9.577007401838545</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2006,25 +2006,25 @@
         <v>16.54332773730003</v>
       </c>
       <c r="P19" t="n">
-        <v>35.86212300703479</v>
+        <v>35.86212300703475</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0153888717162061</v>
+        <v>0.01538887171620576</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2790135838817918</v>
+        <v>0.2790135838817655</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1314462882007816</v>
+        <v>0.1314462882007692</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2287489428083398</v>
+        <v>0.2287489428083295</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04121580039324643</v>
+        <v>0.04121580039324646</v>
       </c>
       <c r="V19" t="n">
-        <v>0.09680816019474894</v>
+        <v>0.09680816019474443</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002577999999999747</v>
+        <v>0.00179080000000198</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2058,13 +2058,13 @@
         <v>359.9331647282395</v>
       </c>
       <c r="F20" t="n">
-        <v>30.33983177481026</v>
+        <v>30.33983177481024</v>
       </c>
       <c r="G20" t="n">
         <v>115.7415498967652</v>
       </c>
       <c r="H20" t="n">
-        <v>9.23055015211196</v>
+        <v>9.230550152111954</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2085,28 +2085,28 @@
         <v>24.92281376836615</v>
       </c>
       <c r="O20" t="n">
-        <v>25.87304669282785</v>
+        <v>25.87304669282786</v>
       </c>
       <c r="P20" t="n">
-        <v>25.4652764139596</v>
+        <v>25.46527641395959</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01500229064330366</v>
+        <v>0.01500229064330446</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2639456823150642</v>
+        <v>0.2639456823150612</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1348804364929137</v>
+        <v>0.1348804364929177</v>
       </c>
       <c r="T20" t="n">
-        <v>0.09494506380195979</v>
+        <v>0.0949450638019632</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04084170730920003</v>
+        <v>0.04084170730920016</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1266418043500228</v>
+        <v>0.1266418043500275</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002893700000001331</v>
+        <v>0.003026999999999447</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2143,7 +2143,7 @@
         <v>29.84775042174654</v>
       </c>
       <c r="G21" t="n">
-        <v>17.32409156436295</v>
+        <v>17.32409156436294</v>
       </c>
       <c r="H21" t="n">
         <v>12.3161686249933</v>
@@ -2170,25 +2170,25 @@
         <v>7.677970300991456</v>
       </c>
       <c r="P21" t="n">
-        <v>41.71431637987394</v>
+        <v>41.71431637987393</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01494354718368825</v>
+        <v>0.01494354718368863</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3103917619081926</v>
+        <v>0.3103917619081965</v>
       </c>
       <c r="S21" t="n">
-        <v>0.08637280838215189</v>
+        <v>0.08637280838215619</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4572334842839436</v>
+        <v>0.4572334842839606</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03859356642202053</v>
+        <v>0.0385935664220205</v>
       </c>
       <c r="V21" t="n">
-        <v>0.04624198925507544</v>
+        <v>0.04624198925507558</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002079199999997172</v>
+        <v>0.001448500000002184</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2222,7 +2222,7 @@
         <v>0.02553860732196857</v>
       </c>
       <c r="F22" t="n">
-        <v>29.60247688378664</v>
+        <v>29.60247688378663</v>
       </c>
       <c r="G22" t="n">
         <v>106.2164769516989</v>
@@ -2252,25 +2252,25 @@
         <v>36.7146927352628</v>
       </c>
       <c r="P22" t="n">
-        <v>28.01692566440191</v>
+        <v>28.0169256644019</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0149297864769074</v>
+        <v>0.0149297864769059</v>
       </c>
       <c r="R22" t="n">
-        <v>0.3076529687252363</v>
+        <v>0.3076529687251693</v>
       </c>
       <c r="S22" t="n">
-        <v>0.2026523478410511</v>
+        <v>0.2026523478410057</v>
       </c>
       <c r="T22" t="n">
-        <v>0.06441653263623039</v>
+        <v>0.06441653263622936</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03768644564701591</v>
+        <v>0.03768644564701583</v>
       </c>
       <c r="V22" t="n">
-        <v>0.09297952273450977</v>
+        <v>0.09297952273450996</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.003014100000001463</v>
+        <v>0.002938200000002666</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2310,7 +2310,7 @@
         <v>8.991559936405888</v>
       </c>
       <c r="H23" t="n">
-        <v>6.981239983719295</v>
+        <v>6.981239983719293</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2337,22 +2337,22 @@
         <v>36.14210140325739</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01305158930483076</v>
+        <v>0.01305158930483077</v>
       </c>
       <c r="R23" t="n">
-        <v>0.3768206066582296</v>
+        <v>0.3768206066582253</v>
       </c>
       <c r="S23" t="n">
-        <v>0.04971468271275527</v>
+        <v>0.0497146827127556</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6091911100230707</v>
+        <v>0.6091911100230687</v>
       </c>
       <c r="U23" t="n">
         <v>0.04051772377338841</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2684446233188117</v>
+        <v>0.268444623318811</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002041399999995974</v>
+        <v>0.001944900000001581</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2386,13 +2386,13 @@
         <v>0.003310987181143843</v>
       </c>
       <c r="F24" t="n">
-        <v>30.37146776343048</v>
+        <v>30.37146776343049</v>
       </c>
       <c r="G24" t="n">
         <v>38.80857028932738</v>
       </c>
       <c r="H24" t="n">
-        <v>8.562855847930084</v>
+        <v>8.56285584793009</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2416,25 +2416,25 @@
         <v>12.01616221861329</v>
       </c>
       <c r="P24" t="n">
-        <v>36.56331439187897</v>
+        <v>36.56331439187899</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01524748260990245</v>
+        <v>0.01524748260990218</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2759530032011242</v>
+        <v>0.2759530032011223</v>
       </c>
       <c r="S24" t="n">
-        <v>0.105039094043618</v>
+        <v>0.1050390940436166</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3014852266859508</v>
+        <v>0.3014852266859431</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04412640401309258</v>
+        <v>0.04412640401309253</v>
       </c>
       <c r="V24" t="n">
-        <v>0.1027073340940336</v>
+        <v>0.1027073340940331</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002552499999993074</v>
+        <v>0.001792099999999408</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
@@ -2498,25 +2498,25 @@
         <v>34.82295069439531</v>
       </c>
       <c r="P25" t="n">
-        <v>32.10980384547849</v>
+        <v>32.1098038454785</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0155044350677552</v>
+        <v>0.01550443506775768</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3271808813294845</v>
+        <v>0.3271808813296104</v>
       </c>
       <c r="S25" t="n">
-        <v>0.2269637569168562</v>
+        <v>0.2269637569169475</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0782199334609851</v>
+        <v>0.0782199334609881</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03664793044707899</v>
+        <v>0.03664793044707897</v>
       </c>
       <c r="V25" t="n">
-        <v>0.01864240750476495</v>
+        <v>0.01864240750476396</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.003016600000009362</v>
+        <v>0.002224499999996965</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2556,7 +2556,7 @@
         <v>172.3674121470185</v>
       </c>
       <c r="H26" t="n">
-        <v>11.10654827606958</v>
+        <v>11.10654827606957</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2580,25 +2580,25 @@
         <v>11.78256546723305</v>
       </c>
       <c r="P26" t="n">
-        <v>14.32071718743405</v>
+        <v>14.32071718743406</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0119645099088627</v>
+        <v>0.01196450990886199</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1405244079208265</v>
+        <v>0.1405244079208307</v>
       </c>
       <c r="S26" t="n">
-        <v>0.04533725871941867</v>
+        <v>0.04533725871941754</v>
       </c>
       <c r="T26" t="n">
-        <v>0.1638385079695883</v>
+        <v>0.163838507969577</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03889689569687994</v>
+        <v>0.03889689569687985</v>
       </c>
       <c r="V26" t="n">
-        <v>0.09912884141580383</v>
+        <v>0.09912884141580605</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.004025699999999688</v>
+        <v>0.001706199999997438</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2638,7 +2638,7 @@
         <v>156.509595210922</v>
       </c>
       <c r="H27" t="n">
-        <v>10.08497893778157</v>
+        <v>10.08497893778158</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2662,25 +2662,25 @@
         <v>19.91770286448889</v>
       </c>
       <c r="P27" t="n">
-        <v>17.60325331584735</v>
+        <v>17.60325331584736</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0136399471298618</v>
+        <v>0.01363994712986177</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1947267807303693</v>
+        <v>0.1947267807303701</v>
       </c>
       <c r="S27" t="n">
-        <v>0.0784737851031502</v>
+        <v>0.07847378510315037</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1031708365257222</v>
+        <v>0.1031708365257229</v>
       </c>
       <c r="U27" t="n">
         <v>0.04274175894682507</v>
       </c>
       <c r="V27" t="n">
-        <v>0.05259676704064936</v>
+        <v>0.05259676704065014</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.00252129999999795</v>
+        <v>0.001811599999999913</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -2720,7 +2720,7 @@
         <v>56.11519378222447</v>
       </c>
       <c r="H28" t="n">
-        <v>9.1196771891618</v>
+        <v>9.119677189161795</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2741,28 +2741,28 @@
         <v>35.20863709983118</v>
       </c>
       <c r="O28" t="n">
-        <v>17.01858679692748</v>
+        <v>17.01858679692749</v>
       </c>
       <c r="P28" t="n">
-        <v>35.06400900511193</v>
+        <v>35.06400900511191</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01532548035582118</v>
+        <v>0.01532548035582158</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2777872410426946</v>
+        <v>0.2777872410427217</v>
       </c>
       <c r="S28" t="n">
-        <v>0.1314528896084828</v>
+        <v>0.1314528896084975</v>
       </c>
       <c r="T28" t="n">
-        <v>0.218195406804423</v>
+        <v>0.2181954068044333</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0384061981988505</v>
+        <v>0.03840619819885049</v>
       </c>
       <c r="V28" t="n">
-        <v>0.05957792404418</v>
+        <v>0.05957792404418281</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.004206899999999791</v>
+        <v>0.001801999999997861</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2796,10 +2796,10 @@
         <v>359.9569814384545</v>
       </c>
       <c r="F29" t="n">
-        <v>30.06939880395162</v>
+        <v>30.06939880395161</v>
       </c>
       <c r="G29" t="n">
-        <v>76.25013553946511</v>
+        <v>76.25013553946509</v>
       </c>
       <c r="H29" t="n">
         <v>12.91979215643769</v>
@@ -2829,19 +2829,19 @@
         <v>35.10346953590438</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01581259922443448</v>
+        <v>0.01581259922443355</v>
       </c>
       <c r="R29" t="n">
-        <v>0.3177354854682189</v>
+        <v>0.3177354854681715</v>
       </c>
       <c r="S29" t="n">
-        <v>0.201637814332801</v>
+        <v>0.2016378143327694</v>
       </c>
       <c r="T29" t="n">
-        <v>0.1327823595569194</v>
+        <v>0.132782359556909</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04140566287912023</v>
+        <v>0.04140566287912033</v>
       </c>
       <c r="V29" t="n">
         <v>0.05427569814609169</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002756699999991952</v>
+        <v>0.002446599999998966</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2884,7 +2884,7 @@
         <v>131.0208164822023</v>
       </c>
       <c r="H30" t="n">
-        <v>9.726893759398509</v>
+        <v>9.726893759398507</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2905,28 +2905,28 @@
         <v>22.06038522110382</v>
       </c>
       <c r="O30" t="n">
-        <v>26.83668236771617</v>
+        <v>26.83668236771616</v>
       </c>
       <c r="P30" t="n">
         <v>22.09463900432968</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01440348747764668</v>
+        <v>0.01440348747764797</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2449527113476525</v>
+        <v>0.2449527113477024</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1201162321573016</v>
+        <v>0.1201162321573278</v>
       </c>
       <c r="T30" t="n">
-        <v>0.08162315791380471</v>
+        <v>0.08162315791380502</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03833557898464802</v>
+        <v>0.03833557898464805</v>
       </c>
       <c r="V30" t="n">
-        <v>0.01120940437644695</v>
+        <v>0.01120940437644687</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002430799999999067</v>
+        <v>0.001891599999996885</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -2966,7 +2966,7 @@
         <v>154.0559861282953</v>
       </c>
       <c r="H31" t="n">
-        <v>6.267774420676066</v>
+        <v>6.267774420676064</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2993,22 +2993,22 @@
         <v>21.21528552470619</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01325501201482177</v>
+        <v>0.01325501201482185</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1842641083316096</v>
+        <v>0.1842641083316086</v>
       </c>
       <c r="S31" t="n">
-        <v>0.06264468262920732</v>
+        <v>0.06264468262920719</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1974532296386238</v>
+        <v>0.1974532296386249</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04022823998379008</v>
+        <v>0.04022823998379001</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1278467946949678</v>
+        <v>0.1278467946949685</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002244200000006913</v>
+        <v>0.001633399999999341</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3048,7 +3048,7 @@
         <v>116.3015755166865</v>
       </c>
       <c r="H32" t="n">
-        <v>7.467457949666835</v>
+        <v>7.467457949666836</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3072,25 +3072,25 @@
         <v>21.71793513668133</v>
       </c>
       <c r="P32" t="n">
-        <v>24.89927059587451</v>
+        <v>24.89927059587453</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.0143373088807307</v>
+        <v>0.01433730888073159</v>
       </c>
       <c r="R32" t="n">
-        <v>0.2355324624177235</v>
+        <v>0.2355324624177366</v>
       </c>
       <c r="S32" t="n">
-        <v>0.1115740664713371</v>
+        <v>0.1115740664713484</v>
       </c>
       <c r="T32" t="n">
-        <v>0.1178208206850447</v>
+        <v>0.1178208206850493</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03975019856865389</v>
+        <v>0.0397501985686539</v>
       </c>
       <c r="V32" t="n">
-        <v>0.06961536826335396</v>
+        <v>0.0696153682633513</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002176800000000867</v>
+        <v>0.002266899999998628</v>
       </c>
       <c r="Y32" t="n">
         <v>8</v>
@@ -3124,13 +3124,13 @@
         <v>0.03457783468247316</v>
       </c>
       <c r="F33" t="n">
-        <v>29.77070722122714</v>
+        <v>29.77070722122716</v>
       </c>
       <c r="G33" t="n">
         <v>51.27107729158919</v>
       </c>
       <c r="H33" t="n">
-        <v>14.37775236538701</v>
+        <v>14.37775236538702</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3154,25 +3154,25 @@
         <v>21.10632834081073</v>
       </c>
       <c r="P33" t="n">
-        <v>40.67753876009187</v>
+        <v>40.6775387600919</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.01587276640601254</v>
+        <v>0.01587276640601223</v>
       </c>
       <c r="R33" t="n">
-        <v>0.3191965586350065</v>
+        <v>0.319196558634983</v>
       </c>
       <c r="S33" t="n">
-        <v>0.1877311290955634</v>
+        <v>0.1877311290955487</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2231161978974113</v>
+        <v>0.2231161978974002</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04101730237283639</v>
+        <v>0.04101730237283628</v>
       </c>
       <c r="V33" t="n">
-        <v>0.04870339995199453</v>
+        <v>0.04870339995199154</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002712800000011839</v>
+        <v>0.002072800000000541</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3212,7 +3212,7 @@
         <v>153.9509992912517</v>
       </c>
       <c r="H34" t="n">
-        <v>7.344043710228746</v>
+        <v>7.344043710228745</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3236,25 +3236,25 @@
         <v>14.56921908781883</v>
       </c>
       <c r="P34" t="n">
-        <v>19.97372137169403</v>
+        <v>19.97372137169402</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.01331068952926102</v>
+        <v>0.01331068952926107</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1812959123228575</v>
+        <v>0.1812959123228628</v>
       </c>
       <c r="S34" t="n">
-        <v>0.06761511114590063</v>
+        <v>0.06761511114590429</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1581885351444703</v>
+        <v>0.1581885351444692</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04041393147675919</v>
+        <v>0.04041393147675915</v>
       </c>
       <c r="V34" t="n">
-        <v>0.06663244158535642</v>
+        <v>0.06663244158535613</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.00217859999999348</v>
+        <v>0.001595699999999312</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3291,10 +3291,10 @@
         <v>29.90340340354113</v>
       </c>
       <c r="G35" t="n">
-        <v>46.7068408285364</v>
+        <v>46.70684082853636</v>
       </c>
       <c r="H35" t="n">
-        <v>7.868099141555876</v>
+        <v>7.868099141555882</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3318,25 +3318,25 @@
         <v>13.44926853401939</v>
       </c>
       <c r="P35" t="n">
-        <v>34.71348263792797</v>
+        <v>34.71348263792798</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01495475668551578</v>
+        <v>0.01495475668551604</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2629147043651561</v>
+        <v>0.2629147043651548</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1071291223266168</v>
+        <v>0.1071291223266181</v>
       </c>
       <c r="T35" t="n">
-        <v>0.2625103005457511</v>
+        <v>0.2625103005457563</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03840310964761927</v>
+        <v>0.03840310964761928</v>
       </c>
       <c r="V35" t="n">
-        <v>0.2467308895176348</v>
+        <v>0.2467308895176321</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.00213649999999177</v>
+        <v>0.001395300000002209</v>
       </c>
       <c r="Y35" t="n">
         <v>7</v>
@@ -3370,13 +3370,13 @@
         <v>359.9913858692665</v>
       </c>
       <c r="F36" t="n">
-        <v>30.17868468862831</v>
+        <v>30.1786846886283</v>
       </c>
       <c r="G36" t="n">
         <v>7.176250651687581</v>
       </c>
       <c r="H36" t="n">
-        <v>12.07807215451756</v>
+        <v>12.07807215451757</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3403,22 +3403,22 @@
         <v>42.04795580826643</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.01383807851130536</v>
+        <v>0.01383807851130553</v>
       </c>
       <c r="R36" t="n">
-        <v>0.4075293638251701</v>
+        <v>0.4075293638251722</v>
       </c>
       <c r="S36" t="n">
-        <v>0.05859292623716798</v>
+        <v>0.05859292623716756</v>
       </c>
       <c r="T36" t="n">
-        <v>0.6722716356831521</v>
+        <v>0.6722716356831629</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03821377675669731</v>
+        <v>0.03821377675669726</v>
       </c>
       <c r="V36" t="n">
-        <v>0.07817016634383839</v>
+        <v>0.07817016634383622</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001918200000005754</v>
+        <v>0.001528000000000418</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3452,13 +3452,13 @@
         <v>359.9863548696013</v>
       </c>
       <c r="F37" t="n">
-        <v>30.08688861618255</v>
+        <v>30.08688861618254</v>
       </c>
       <c r="G37" t="n">
-        <v>82.90487805269909</v>
+        <v>82.90487805269905</v>
       </c>
       <c r="H37" t="n">
-        <v>6.732306988323404</v>
+        <v>6.732306988323407</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3482,25 +3482,25 @@
         <v>17.87293964249421</v>
       </c>
       <c r="P37" t="n">
-        <v>29.91195768098491</v>
+        <v>29.91195768098492</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.01488853157113269</v>
+        <v>0.01488853157113303</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2528983068412043</v>
+        <v>0.2528983068412097</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1154648914161316</v>
+        <v>0.1154648914161368</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1753012949659022</v>
+        <v>0.1753012949659069</v>
       </c>
       <c r="U37" t="n">
         <v>0.0417484792071011</v>
       </c>
       <c r="V37" t="n">
-        <v>0.03925742017196795</v>
+        <v>0.03925742017196863</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.003254200000000651</v>
+        <v>0.001643599999997747</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
@@ -3534,7 +3534,7 @@
         <v>0.01893753542528117</v>
       </c>
       <c r="F38" t="n">
-        <v>29.79461174819869</v>
+        <v>29.79461174819867</v>
       </c>
       <c r="G38" t="n">
         <v>131.5435235397711</v>
@@ -3561,28 +3561,28 @@
         <v>21.94213719690333</v>
       </c>
       <c r="O38" t="n">
-        <v>28.31090700264971</v>
+        <v>28.3109070026497</v>
       </c>
       <c r="P38" t="n">
-        <v>21.70055802917523</v>
+        <v>21.70055802917522</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01427589442347542</v>
+        <v>0.01427589442347555</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2458056782300404</v>
+        <v>0.245805678230033</v>
       </c>
       <c r="S38" t="n">
-        <v>0.1229586015013452</v>
+        <v>0.1229586015013429</v>
       </c>
       <c r="T38" t="n">
-        <v>0.07597970224556742</v>
+        <v>0.07597970224556792</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04423637837190206</v>
+        <v>0.04423637837190197</v>
       </c>
       <c r="V38" t="n">
-        <v>0.0476807287936582</v>
+        <v>0.04768072879366785</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.002445300000005091</v>
+        <v>0.001801400000001507</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3622,7 +3622,7 @@
         <v>169.0308004732705</v>
       </c>
       <c r="H39" t="n">
-        <v>8.29870098457442</v>
+        <v>8.298700984574419</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3646,25 +3646,25 @@
         <v>9.762080130851858</v>
       </c>
       <c r="P39" t="n">
-        <v>17.97660398096522</v>
+        <v>17.97660398096523</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.01228914164126825</v>
+        <v>0.01228914164126862</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1655560363308783</v>
+        <v>0.1655560363308774</v>
       </c>
       <c r="S39" t="n">
-        <v>0.04730475973933171</v>
+        <v>0.0473047597393346</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2164794623955018</v>
+        <v>0.216479462395509</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03860407078638483</v>
+        <v>0.03860407078638476</v>
       </c>
       <c r="V39" t="n">
-        <v>0.1597448600196751</v>
+        <v>0.1597448600196766</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002162999999995918</v>
+        <v>0.002069599999998673</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3701,10 +3701,10 @@
         <v>30.15001803214981</v>
       </c>
       <c r="G40" t="n">
-        <v>69.19157357166928</v>
+        <v>69.19157357166931</v>
       </c>
       <c r="H40" t="n">
-        <v>13.45058962737136</v>
+        <v>13.45058962737135</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3728,25 +3728,25 @@
         <v>26.01317244287603</v>
       </c>
       <c r="P40" t="n">
-        <v>37.0176849961575</v>
+        <v>37.01768499615748</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.01599286406905837</v>
+        <v>0.01599286406905932</v>
       </c>
       <c r="R40" t="n">
-        <v>0.3237249704237682</v>
+        <v>0.3237249704238404</v>
       </c>
       <c r="S40" t="n">
-        <v>0.204459562495375</v>
+        <v>0.2044595624954205</v>
       </c>
       <c r="T40" t="n">
-        <v>0.1555444462697146</v>
+        <v>0.1555444462697315</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04251099302002367</v>
+        <v>0.04251099302002353</v>
       </c>
       <c r="V40" t="n">
-        <v>0.04220182378084086</v>
+        <v>0.04220182378083789</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.00271200000000249</v>
+        <v>0.001994599999999735</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3807,28 +3807,28 @@
         <v>29.87603008831807</v>
       </c>
       <c r="O41" t="n">
-        <v>32.58511782679383</v>
+        <v>32.58511782679381</v>
       </c>
       <c r="P41" t="n">
-        <v>29.61724920855876</v>
+        <v>29.61724920855877</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.0151492271789374</v>
+        <v>0.01514922717893682</v>
       </c>
       <c r="R41" t="n">
-        <v>0.3025224443330738</v>
+        <v>0.3025224443330221</v>
       </c>
       <c r="S41" t="n">
-        <v>0.1927354730931672</v>
+        <v>0.1927354730931358</v>
       </c>
       <c r="T41" t="n">
-        <v>0.07906276715575719</v>
+        <v>0.07906276715575748</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0417780023235261</v>
+        <v>0.04177800232352609</v>
       </c>
       <c r="V41" t="n">
-        <v>0.0450459938222047</v>
+        <v>0.0450459938222052</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002675400000001105</v>
+        <v>0.002005599999996832</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3862,13 +3862,13 @@
         <v>359.9918451102924</v>
       </c>
       <c r="F42" t="n">
-        <v>30.10408500789322</v>
+        <v>30.10408500789321</v>
       </c>
       <c r="G42" t="n">
-        <v>69.43324147607487</v>
+        <v>69.43324147607488</v>
       </c>
       <c r="H42" t="n">
-        <v>3.824762347796662</v>
+        <v>3.824762347796659</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3892,25 +3892,25 @@
         <v>10.63313363665411</v>
       </c>
       <c r="P42" t="n">
-        <v>29.6084953919172</v>
+        <v>29.60849539191719</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.01415404689167649</v>
+        <v>0.01415404689167687</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2318327907255348</v>
+        <v>0.2318327907255394</v>
       </c>
       <c r="S42" t="n">
-        <v>0.07692179651282102</v>
+        <v>0.07692179651282371</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2761230797599915</v>
+        <v>0.2761230797600005</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03875525242533093</v>
+        <v>0.03875525242533087</v>
       </c>
       <c r="V42" t="n">
-        <v>0.2381502077243065</v>
+        <v>0.2381502077243037</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002261099999998351</v>
+        <v>0.002453599999999057</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3947,10 +3947,10 @@
         <v>29.97674933293274</v>
       </c>
       <c r="G43" t="n">
-        <v>51.87534482923407</v>
+        <v>51.8753448292341</v>
       </c>
       <c r="H43" t="n">
-        <v>3.052993527583732</v>
+        <v>3.05299352758373</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3977,22 +3977,22 @@
         <v>29.90159132487561</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.01364544411063522</v>
+        <v>0.01364544411063535</v>
       </c>
       <c r="R43" t="n">
-        <v>0.2428810012969116</v>
+        <v>0.2428810012969149</v>
       </c>
       <c r="S43" t="n">
-        <v>0.06279552139395302</v>
+        <v>0.06279552139395432</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3494834051223371</v>
+        <v>0.3494834051223401</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04008840694031472</v>
+        <v>0.04008840694031467</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5665745551235335</v>
+        <v>0.5665745551235355</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002192600000000766</v>
+        <v>0.001642699999997888</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4026,10 +4026,10 @@
         <v>0.04214948975872663</v>
       </c>
       <c r="F44" t="n">
-        <v>29.95421955357158</v>
+        <v>29.95421955357157</v>
       </c>
       <c r="G44" t="n">
-        <v>68.09252714207778</v>
+        <v>68.0925271420778</v>
       </c>
       <c r="H44" t="n">
         <v>14.17996880546885</v>
@@ -4053,28 +4053,28 @@
         <v>38.09464111448521</v>
       </c>
       <c r="O44" t="n">
-        <v>26.75029486854</v>
+        <v>26.75029486854001</v>
       </c>
       <c r="P44" t="n">
         <v>37.72400442921366</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.01578644900895413</v>
+        <v>0.01578644900895288</v>
       </c>
       <c r="R44" t="n">
-        <v>0.3272403317174035</v>
+        <v>0.3272403317172972</v>
       </c>
       <c r="S44" t="n">
-        <v>0.2137682183969933</v>
+        <v>0.2137682183969242</v>
       </c>
       <c r="T44" t="n">
-        <v>0.1566531532090212</v>
+        <v>0.1566531532089959</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03749964624890715</v>
+        <v>0.03749964624890717</v>
       </c>
       <c r="V44" t="n">
-        <v>0.07760220155182296</v>
+        <v>0.07760220155182389</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.004154200000002106</v>
+        <v>0.001907600000002674</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4108,13 +4108,13 @@
         <v>359.9843964056801</v>
       </c>
       <c r="F45" t="n">
-        <v>29.76082422346194</v>
+        <v>29.76082422346195</v>
       </c>
       <c r="G45" t="n">
         <v>20.16127502231623</v>
       </c>
       <c r="H45" t="n">
-        <v>10.59242622553004</v>
+        <v>10.59242622553005</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,25 +4138,25 @@
         <v>8.074025336750354</v>
       </c>
       <c r="P45" t="n">
-        <v>39.46775287277268</v>
+        <v>39.46775287277269</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.01472935583085182</v>
+        <v>0.01472935583085157</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2931366656440002</v>
+        <v>0.2931366656440055</v>
       </c>
       <c r="S45" t="n">
-        <v>0.08415999072907425</v>
+        <v>0.08415999072907362</v>
       </c>
       <c r="T45" t="n">
-        <v>0.420751313157145</v>
+        <v>0.4207513131571371</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03911052255293544</v>
+        <v>0.03911052255293538</v>
       </c>
       <c r="V45" t="n">
-        <v>0.09445069422399537</v>
+        <v>0.09445069422399768</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.001916700000009541</v>
+        <v>0.001458299999999468</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4196,7 +4196,7 @@
         <v>149.8614480210933</v>
       </c>
       <c r="H46" t="n">
-        <v>4.326076384354836</v>
+        <v>4.326076384354841</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4223,22 +4223,22 @@
         <v>23.64309280295557</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.01321689676613391</v>
+        <v>0.01321689676613408</v>
       </c>
       <c r="R46" t="n">
-        <v>0.2025405121353401</v>
+        <v>0.2025405121353415</v>
       </c>
       <c r="S46" t="n">
-        <v>0.05725973452347061</v>
+        <v>0.05725973452347164</v>
       </c>
       <c r="T46" t="n">
-        <v>0.267958478335057</v>
+        <v>0.2679584783350625</v>
       </c>
       <c r="U46" t="n">
         <v>0.03990414750005317</v>
       </c>
       <c r="V46" t="n">
-        <v>0.08698277185768444</v>
+        <v>0.08698277185768757</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.00390370000000928</v>
+        <v>0.001652599999999893</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4278,7 +4278,7 @@
         <v>178.3450456566258</v>
       </c>
       <c r="H47" t="n">
-        <v>9.973045225810226</v>
+        <v>9.973045225810212</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4302,25 +4302,25 @@
         <v>5.620955849959364</v>
       </c>
       <c r="P47" t="n">
-        <v>15.57762245435039</v>
+        <v>15.57762245435041</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.01063750783027671</v>
+        <v>0.01063750783027659</v>
       </c>
       <c r="R47" t="n">
-        <v>0.1930596179868831</v>
+        <v>0.193059617986885</v>
       </c>
       <c r="S47" t="n">
-        <v>0.02974117674449148</v>
+        <v>0.02974117674449064</v>
       </c>
       <c r="T47" t="n">
-        <v>0.2847867632571163</v>
+        <v>0.284786763257113</v>
       </c>
       <c r="U47" t="n">
-        <v>0.03768889087342929</v>
+        <v>0.03768889087342924</v>
       </c>
       <c r="V47" t="n">
-        <v>0.1507054638738086</v>
+        <v>0.1507054638738034</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001908299999996643</v>
+        <v>0.001360399999999373</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4354,13 +4354,13 @@
         <v>0.01073834081665377</v>
       </c>
       <c r="F48" t="n">
-        <v>30.01206083885028</v>
+        <v>30.01206083885029</v>
       </c>
       <c r="G48" t="n">
         <v>141.3907115165481</v>
       </c>
       <c r="H48" t="n">
-        <v>10.64724768817791</v>
+        <v>10.64724768817792</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4387,22 +4387,22 @@
         <v>19.66899993793114</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.01416435300458782</v>
+        <v>0.01416435300458611</v>
       </c>
       <c r="R48" t="n">
-        <v>0.2365088431851665</v>
+        <v>0.2365088431851051</v>
       </c>
       <c r="S48" t="n">
-        <v>0.11134961363691</v>
+        <v>0.1113496136368798</v>
       </c>
       <c r="T48" t="n">
-        <v>0.07515320861899057</v>
+        <v>0.07515320861899089</v>
       </c>
       <c r="U48" t="n">
-        <v>0.04121944556513505</v>
+        <v>0.04121944556513514</v>
       </c>
       <c r="V48" t="n">
-        <v>0.02314554422231203</v>
+        <v>0.02314554422231245</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002481099999997127</v>
+        <v>0.001742899999999992</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4436,7 +4436,7 @@
         <v>0.006390206677709955</v>
       </c>
       <c r="F49" t="n">
-        <v>30.15217003786255</v>
+        <v>30.15217003786254</v>
       </c>
       <c r="G49" t="n">
         <v>20.59673060424388</v>
@@ -4466,25 +4466,25 @@
         <v>9.468602006117736</v>
       </c>
       <c r="P49" t="n">
-        <v>44.49648922604647</v>
+        <v>44.49648922604646</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01567381551936166</v>
+        <v>0.01567381551936155</v>
       </c>
       <c r="R49" t="n">
-        <v>0.3196897502192078</v>
+        <v>0.3196897502192143</v>
       </c>
       <c r="S49" t="n">
-        <v>0.1086052201844143</v>
+        <v>0.1086052201844164</v>
       </c>
       <c r="T49" t="n">
-        <v>0.4283003285878484</v>
+        <v>0.4283003285878457</v>
       </c>
       <c r="U49" t="n">
-        <v>0.03983193466009988</v>
+        <v>0.03983193466009992</v>
       </c>
       <c r="V49" t="n">
-        <v>0.02835382337092968</v>
+        <v>0.02835382337092994</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002036099999997987</v>
+        <v>0.00155510000000092</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
@@ -4518,13 +4518,13 @@
         <v>359.9972755148958</v>
       </c>
       <c r="F50" t="n">
-        <v>29.59151934409676</v>
+        <v>29.59151934409675</v>
       </c>
       <c r="G50" t="n">
-        <v>3.009767702406836</v>
+        <v>3.009767702406823</v>
       </c>
       <c r="H50" t="n">
-        <v>13.95606293362651</v>
+        <v>13.95606293362652</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4551,22 +4551,22 @@
         <v>43.74731321476443</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.01288871040745934</v>
+        <v>0.0128887104074594</v>
       </c>
       <c r="R50" t="n">
-        <v>0.513117888167531</v>
+        <v>0.5131178881675431</v>
       </c>
       <c r="S50" t="n">
-        <v>0.04832770700388996</v>
+        <v>0.04832770700389002</v>
       </c>
       <c r="T50" t="n">
-        <v>0.8396874736080764</v>
+        <v>0.8396874736080895</v>
       </c>
       <c r="U50" t="n">
-        <v>0.04075098490892377</v>
+        <v>0.04075098490892374</v>
       </c>
       <c r="V50" t="n">
-        <v>0.06078497915159382</v>
+        <v>0.0607849791515955</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001989600000001701</v>
+        <v>0.001360500000000542</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4600,10 +4600,10 @@
         <v>359.9933303594017</v>
       </c>
       <c r="F51" t="n">
-        <v>29.72261147601912</v>
+        <v>29.72261147601913</v>
       </c>
       <c r="G51" t="n">
-        <v>53.30189756930108</v>
+        <v>53.30189756930109</v>
       </c>
       <c r="H51" t="n">
         <v>5.974871244690998</v>
@@ -4633,19 +4633,19 @@
         <v>32.14371668025873</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.01453366216875254</v>
+        <v>0.01453366216875177</v>
       </c>
       <c r="R51" t="n">
-        <v>0.2441844133165368</v>
+        <v>0.2441844133165419</v>
       </c>
       <c r="S51" t="n">
-        <v>0.09268877103015603</v>
+        <v>0.09268877103015373</v>
       </c>
       <c r="T51" t="n">
-        <v>0.2590123018487169</v>
+        <v>0.2590123018486996</v>
       </c>
       <c r="U51" t="n">
-        <v>0.03640452411507158</v>
+        <v>0.03640452411507161</v>
       </c>
       <c r="V51" t="n">
         <v>0.04362937212734157</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002429700000007529</v>
+        <v>0.001598800000000011</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4682,13 +4682,13 @@
         <v>359.9954616902377</v>
       </c>
       <c r="F52" t="n">
-        <v>29.97382022739335</v>
+        <v>29.97382022739334</v>
       </c>
       <c r="G52" t="n">
-        <v>88.10807070944692</v>
+        <v>88.10807070944685</v>
       </c>
       <c r="H52" t="n">
-        <v>5.768537301571669</v>
+        <v>5.768537301571668</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4715,22 +4715,22 @@
         <v>28.74681254837909</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.01459917626853716</v>
+        <v>0.01459917626853779</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2392322397974606</v>
+        <v>0.2392322397974739</v>
       </c>
       <c r="S52" t="n">
-        <v>0.1028419454886017</v>
+        <v>0.1028419454886111</v>
       </c>
       <c r="T52" t="n">
-        <v>0.1845649260306387</v>
+        <v>0.1845649260306485</v>
       </c>
       <c r="U52" t="n">
-        <v>0.0392154982729305</v>
+        <v>0.03921549827293053</v>
       </c>
       <c r="V52" t="n">
-        <v>0.04570635459515456</v>
+        <v>0.04570635459515609</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.00195370000000139</v>
+        <v>0.001406200000001689</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
@@ -4770,7 +4770,7 @@
         <v>116.5408478588054</v>
       </c>
       <c r="H53" t="n">
-        <v>3.384799279630719</v>
+        <v>3.38479927963072</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4794,25 +4794,25 @@
         <v>10.72898332419872</v>
       </c>
       <c r="P53" t="n">
-        <v>25.80321857650184</v>
+        <v>25.80321857650183</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.01354446200460632</v>
+        <v>0.01354446200460665</v>
       </c>
       <c r="R53" t="n">
-        <v>0.2069865558399822</v>
+        <v>0.2069865558399792</v>
       </c>
       <c r="S53" t="n">
-        <v>0.06750582772999607</v>
+        <v>0.06750582772999797</v>
       </c>
       <c r="T53" t="n">
-        <v>0.2472680355141086</v>
+        <v>0.2472680355141161</v>
       </c>
       <c r="U53" t="n">
         <v>0.03892820741394273</v>
       </c>
       <c r="V53" t="n">
-        <v>0.2565482062130196</v>
+        <v>0.2565482062130172</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003985400000004802</v>
+        <v>0.00176890000000185</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4846,13 +4846,13 @@
         <v>359.9622194720051</v>
       </c>
       <c r="F54" t="n">
-        <v>30.26690104726611</v>
+        <v>30.2669010472661</v>
       </c>
       <c r="G54" t="n">
         <v>142.4561394625033</v>
       </c>
       <c r="H54" t="n">
-        <v>3.055662426580295</v>
+        <v>3.055662426580293</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4876,25 +4876,25 @@
         <v>7.789844535348692</v>
       </c>
       <c r="P54" t="n">
-        <v>24.9736373490769</v>
+        <v>24.97363734907689</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.01297704206496395</v>
+        <v>0.01297704206496409</v>
       </c>
       <c r="R54" t="n">
-        <v>0.2167829385630115</v>
+        <v>0.2167829385630144</v>
       </c>
       <c r="S54" t="n">
-        <v>0.05353640664852802</v>
+        <v>0.05353640664852922</v>
       </c>
       <c r="T54" t="n">
-        <v>0.3109103424664122</v>
+        <v>0.3109103424664187</v>
       </c>
       <c r="U54" t="n">
         <v>0.03692893642901685</v>
       </c>
       <c r="V54" t="n">
-        <v>0.397791725413903</v>
+        <v>0.3977917254139041</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002152099999989332</v>
+        <v>0.001576799999998713</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4934,7 +4934,7 @@
         <v>152.0390927739784</v>
       </c>
       <c r="H55" t="n">
-        <v>9.68963215255409</v>
+        <v>9.689632152554093</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4958,25 +4958,25 @@
         <v>21.13953062413077</v>
       </c>
       <c r="P55" t="n">
-        <v>18.33454985648823</v>
+        <v>18.33454985648822</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.01372899509614401</v>
+        <v>0.01372899509614473</v>
       </c>
       <c r="R55" t="n">
-        <v>0.201031152662047</v>
+        <v>0.2010311526620552</v>
       </c>
       <c r="S55" t="n">
-        <v>0.08412903795831109</v>
+        <v>0.08412903795831647</v>
       </c>
       <c r="T55" t="n">
-        <v>0.09774373853246386</v>
+        <v>0.09774373853246705</v>
       </c>
       <c r="U55" t="n">
-        <v>0.0448727016219931</v>
+        <v>0.04487270162199317</v>
       </c>
       <c r="V55" t="n">
-        <v>0.02971512468792806</v>
+        <v>0.0297151246879265</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002460699999986105</v>
+        <v>0.001818100000001266</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -5037,28 +5037,28 @@
         <v>31.1326825899254</v>
       </c>
       <c r="O56" t="n">
-        <v>18.19001083702228</v>
+        <v>18.19001083702229</v>
       </c>
       <c r="P56" t="n">
         <v>30.49516781619586</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.01472368262692104</v>
+        <v>0.01472368262692149</v>
       </c>
       <c r="R56" t="n">
-        <v>0.2519027694670731</v>
+        <v>0.2519027694670686</v>
       </c>
       <c r="S56" t="n">
-        <v>0.1182105722113853</v>
+        <v>0.1182105722113876</v>
       </c>
       <c r="T56" t="n">
-        <v>0.1758690259015558</v>
+        <v>0.1758690259015621</v>
       </c>
       <c r="U56" t="n">
-        <v>0.03935217500551959</v>
+        <v>0.03935217500551963</v>
       </c>
       <c r="V56" t="n">
-        <v>0.1530228620681226</v>
+        <v>0.1530228620681155</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002252699999999663</v>
+        <v>0.001845800000001674</v>
       </c>
       <c r="Y56" t="n">
         <v>8</v>
@@ -5092,7 +5092,7 @@
         <v>359.9805164682038</v>
       </c>
       <c r="F57" t="n">
-        <v>30.10970770712365</v>
+        <v>30.10970770712364</v>
       </c>
       <c r="G57" t="n">
         <v>16.73829521134314</v>
@@ -5125,16 +5125,16 @@
         <v>45.13223954240046</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.01547875848754537</v>
+        <v>0.01547875848754534</v>
       </c>
       <c r="R57" t="n">
-        <v>0.3295658828873513</v>
+        <v>0.3295658828873471</v>
       </c>
       <c r="S57" t="n">
-        <v>0.09804697507124244</v>
+        <v>0.09804697507124219</v>
       </c>
       <c r="T57" t="n">
-        <v>0.4778712353804928</v>
+        <v>0.4778712353804908</v>
       </c>
       <c r="U57" t="n">
         <v>0.03907972606785443</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.001936900000004016</v>
+        <v>0.00146739999999923</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5174,13 +5174,13 @@
         <v>359.9823826896328</v>
       </c>
       <c r="F58" t="n">
-        <v>30.05148718440724</v>
+        <v>30.05148718440725</v>
       </c>
       <c r="G58" t="n">
-        <v>176.8018092634618</v>
+        <v>176.8018092634619</v>
       </c>
       <c r="H58" t="n">
-        <v>6.857997248888386</v>
+        <v>6.857997248888392</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5207,22 +5207,22 @@
         <v>19.28653043142501</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.01092156904038187</v>
+        <v>0.01092156904038182</v>
       </c>
       <c r="R58" t="n">
-        <v>0.2316669387666472</v>
+        <v>0.2316669387666416</v>
       </c>
       <c r="S58" t="n">
-        <v>0.03201990008987958</v>
+        <v>0.03201990008987986</v>
       </c>
       <c r="T58" t="n">
-        <v>0.3481645188548708</v>
+        <v>0.3481645188548663</v>
       </c>
       <c r="U58" t="n">
-        <v>0.03838266789159504</v>
+        <v>0.03838266789159506</v>
       </c>
       <c r="V58" t="n">
-        <v>0.09010771796585698</v>
+        <v>0.09010771796585365</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.00196809999999914</v>
+        <v>0.001400600000000196</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5256,13 +5256,13 @@
         <v>359.9827456844681</v>
       </c>
       <c r="F59" t="n">
-        <v>29.55043609429434</v>
+        <v>29.55043609429433</v>
       </c>
       <c r="G59" t="n">
-        <v>14.10507331290147</v>
+        <v>14.10507331290145</v>
       </c>
       <c r="H59" t="n">
-        <v>6.608791712820682</v>
+        <v>6.608791712820692</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5289,22 +5289,22 @@
         <v>34.76349984979628</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.01319015775639642</v>
+        <v>0.01319015775639657</v>
       </c>
       <c r="R59" t="n">
-        <v>0.3135334582730792</v>
+        <v>0.3135334582730744</v>
       </c>
       <c r="S59" t="n">
-        <v>0.05487510126926821</v>
+        <v>0.05487510126926905</v>
       </c>
       <c r="T59" t="n">
-        <v>0.502472355984484</v>
+        <v>0.5024723559844886</v>
       </c>
       <c r="U59" t="n">
-        <v>0.04363121269093902</v>
+        <v>0.04363121269093901</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4357786479283404</v>
+        <v>0.4357786479283458</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001926600000004441</v>
+        <v>0.001960499999999143</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5341,10 +5341,10 @@
         <v>29.49409546742726</v>
       </c>
       <c r="G60" t="n">
-        <v>64.43817761321093</v>
+        <v>64.43817761321091</v>
       </c>
       <c r="H60" t="n">
-        <v>8.381958624948687</v>
+        <v>8.381958624948691</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5368,25 +5368,25 @@
         <v>18.15915962160793</v>
       </c>
       <c r="P60" t="n">
-        <v>32.85407264694134</v>
+        <v>32.85407264694135</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.01495490840971325</v>
+        <v>0.01495490840971276</v>
       </c>
       <c r="R60" t="n">
-        <v>0.2624309029390519</v>
+        <v>0.2624309029390504</v>
       </c>
       <c r="S60" t="n">
-        <v>0.1275063742258615</v>
+        <v>0.1275063742258554</v>
       </c>
       <c r="T60" t="n">
-        <v>0.1905428312803662</v>
+        <v>0.1905428312803573</v>
       </c>
       <c r="U60" t="n">
-        <v>0.03768506545600976</v>
+        <v>0.03768506545600973</v>
       </c>
       <c r="V60" t="n">
-        <v>0.07170607582763609</v>
+        <v>0.07170607582763468</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.004237700000004452</v>
+        <v>0.001842199999998684</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5426,7 +5426,7 @@
         <v>167.39430373262</v>
       </c>
       <c r="H61" t="n">
-        <v>5.051673340889379</v>
+        <v>5.051673340889377</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5453,22 +5453,22 @@
         <v>21.48606575623105</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.01200809374919734</v>
+        <v>0.01200809374919742</v>
       </c>
       <c r="R61" t="n">
-        <v>0.2076473260998413</v>
+        <v>0.2076473260998422</v>
       </c>
       <c r="S61" t="n">
-        <v>0.04235534072690873</v>
+        <v>0.04235534072690871</v>
       </c>
       <c r="T61" t="n">
-        <v>0.3116705616132943</v>
+        <v>0.3116705616132965</v>
       </c>
       <c r="U61" t="n">
-        <v>0.0401827413839078</v>
+        <v>0.04018274138390773</v>
       </c>
       <c r="V61" t="n">
-        <v>0.1437756889970694</v>
+        <v>0.1437756889970683</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002189399999991792</v>
+        <v>0.001611300000000426</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5502,7 +5502,7 @@
         <v>359.9766924542508</v>
       </c>
       <c r="F62" t="n">
-        <v>30.38978124270621</v>
+        <v>30.3897812427062</v>
       </c>
       <c r="G62" t="n">
         <v>53.59262357803284</v>
@@ -5532,25 +5532,25 @@
         <v>11.4645061805167</v>
       </c>
       <c r="P62" t="n">
-        <v>32.29796761808454</v>
+        <v>32.29796761808453</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.01471931850091967</v>
+        <v>0.01471931850091931</v>
       </c>
       <c r="R62" t="n">
-        <v>0.2507185180446618</v>
+        <v>0.2507185180446675</v>
       </c>
       <c r="S62" t="n">
-        <v>0.089143726621569</v>
+        <v>0.08914372662156771</v>
       </c>
       <c r="T62" t="n">
-        <v>0.2795172635792798</v>
+        <v>0.2795172635792705</v>
       </c>
       <c r="U62" t="n">
-        <v>0.04282871506513731</v>
+        <v>0.04282871506513733</v>
       </c>
       <c r="V62" t="n">
-        <v>0.156610322124982</v>
+        <v>0.1566103221249817</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002757299999998963</v>
+        <v>0.001622999999998598</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5590,7 +5590,7 @@
         <v>148.0242985691898</v>
       </c>
       <c r="H63" t="n">
-        <v>5.197186480989254</v>
+        <v>5.197186480989257</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5611,28 +5611,28 @@
         <v>22.53166860081129</v>
       </c>
       <c r="O63" t="n">
-        <v>11.36367934469511</v>
+        <v>11.36367934469512</v>
       </c>
       <c r="P63" t="n">
         <v>22.73269206479548</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.01338269337216017</v>
+        <v>0.01338269337215998</v>
       </c>
       <c r="R63" t="n">
-        <v>0.1928552164341741</v>
+        <v>0.1928552164341744</v>
       </c>
       <c r="S63" t="n">
-        <v>0.06356885937294302</v>
+        <v>0.06356885937294256</v>
       </c>
       <c r="T63" t="n">
-        <v>0.2188067327187893</v>
+        <v>0.2188067327187848</v>
       </c>
       <c r="U63" t="n">
-        <v>0.04125992069722359</v>
+        <v>0.04125992069722349</v>
       </c>
       <c r="V63" t="n">
-        <v>0.04411149173873142</v>
+        <v>0.04411149173873102</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002218099999993228</v>
+        <v>0.001743400000002282</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5669,10 +5669,10 @@
         <v>30.53359503464268</v>
       </c>
       <c r="G64" t="n">
-        <v>6.415442334314566</v>
+        <v>6.415442334314578</v>
       </c>
       <c r="H64" t="n">
-        <v>8.363619966159066</v>
+        <v>8.363619966159067</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5696,25 +5696,25 @@
         <v>3.473473781219424</v>
       </c>
       <c r="P64" t="n">
-        <v>37.96046134831031</v>
+        <v>37.96046134831032</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.01317546096069629</v>
+        <v>0.01317546096069626</v>
       </c>
       <c r="R64" t="n">
-        <v>0.4182757333864442</v>
+        <v>0.4182757333864422</v>
       </c>
       <c r="S64" t="n">
-        <v>0.04902513926681822</v>
+        <v>0.04902513926681792</v>
       </c>
       <c r="T64" t="n">
-        <v>0.6778816223827814</v>
+        <v>0.6778816223827758</v>
       </c>
       <c r="U64" t="n">
-        <v>0.03576068982020047</v>
+        <v>0.03576068982020046</v>
       </c>
       <c r="V64" t="n">
-        <v>0.1571867591129087</v>
+        <v>0.1571867591129079</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001953900000003728</v>
+        <v>0.0014390000000013</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5748,13 +5748,13 @@
         <v>359.993001799642</v>
       </c>
       <c r="F65" t="n">
-        <v>30.12718759666132</v>
+        <v>30.12718759666131</v>
       </c>
       <c r="G65" t="n">
         <v>100.0870210261593</v>
       </c>
       <c r="H65" t="n">
-        <v>7.786612618402342</v>
+        <v>7.786612618402336</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5775,28 +5775,28 @@
         <v>27.80920715278775</v>
       </c>
       <c r="O65" t="n">
-        <v>21.83301827619833</v>
+        <v>21.83301827619832</v>
       </c>
       <c r="P65" t="n">
-        <v>27.87362205482459</v>
+        <v>27.87362205482458</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.01487919774430381</v>
+        <v>0.01487919774430316</v>
       </c>
       <c r="R65" t="n">
-        <v>0.2576866445846189</v>
+        <v>0.2576866445846143</v>
       </c>
       <c r="S65" t="n">
-        <v>0.1268927406957016</v>
+        <v>0.1268927406956953</v>
       </c>
       <c r="T65" t="n">
-        <v>0.130429332354992</v>
+        <v>0.1304293323549863</v>
       </c>
       <c r="U65" t="n">
-        <v>0.03838611414538943</v>
+        <v>0.03838611414538935</v>
       </c>
       <c r="V65" t="n">
-        <v>0.0239449790790753</v>
+        <v>0.02394497907907295</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002450400000000741</v>
+        <v>0.002035100000000511</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5830,13 +5830,13 @@
         <v>0.05482772946515195</v>
       </c>
       <c r="F66" t="n">
-        <v>30.02819712765627</v>
+        <v>30.02819712765626</v>
       </c>
       <c r="G66" t="n">
-        <v>68.94808211238528</v>
+        <v>68.94808211238534</v>
       </c>
       <c r="H66" t="n">
-        <v>9.67890005780079</v>
+        <v>9.67890005780078</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5860,25 +5860,25 @@
         <v>20.86500908820152</v>
       </c>
       <c r="P66" t="n">
-        <v>33.80054007315319</v>
+        <v>33.80054007315317</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.01529661709631965</v>
+        <v>0.0152966170963187</v>
       </c>
       <c r="R66" t="n">
-        <v>0.2847717514498546</v>
+        <v>0.284771751449831</v>
       </c>
       <c r="S66" t="n">
-        <v>0.1498420337660342</v>
+        <v>0.1498420337660161</v>
       </c>
       <c r="T66" t="n">
-        <v>0.1727757252208263</v>
+        <v>0.1727757252208101</v>
       </c>
       <c r="U66" t="n">
-        <v>0.04318764615800957</v>
+        <v>0.04318764615800955</v>
       </c>
       <c r="V66" t="n">
-        <v>0.05934124742590453</v>
+        <v>0.05934124742590971</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002434800000003179</v>
+        <v>0.001902199999999965</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5915,10 +5915,10 @@
         <v>29.93876335267958</v>
       </c>
       <c r="G67" t="n">
-        <v>38.96451544293902</v>
+        <v>38.96451544293903</v>
       </c>
       <c r="H67" t="n">
-        <v>3.363045827323167</v>
+        <v>3.363045827323165</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5942,25 +5942,25 @@
         <v>6.968846742396082</v>
       </c>
       <c r="P67" t="n">
-        <v>30.68696948635155</v>
+        <v>30.68696948635154</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.01349939799911443</v>
+        <v>0.0134993979991142</v>
       </c>
       <c r="R67" t="n">
-        <v>0.2561289229125156</v>
+        <v>0.2561289229125143</v>
       </c>
       <c r="S67" t="n">
-        <v>0.05957150311666621</v>
+        <v>0.05957150311666397</v>
       </c>
       <c r="T67" t="n">
-        <v>0.3843806565557981</v>
+        <v>0.38438065655579</v>
       </c>
       <c r="U67" t="n">
-        <v>0.03968641902814572</v>
+        <v>0.03968641902814574</v>
       </c>
       <c r="V67" t="n">
-        <v>0.02775537737506762</v>
+        <v>0.02775537737506964</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002265100000002462</v>
+        <v>0.001599599999998702</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -5997,10 +5997,10 @@
         <v>29.7809546892687</v>
       </c>
       <c r="G68" t="n">
-        <v>28.38756337118149</v>
+        <v>28.38756337118153</v>
       </c>
       <c r="H68" t="n">
-        <v>4.419442062321254</v>
+        <v>4.419442062321249</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6027,22 +6027,22 @@
         <v>32.04250886630552</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.01345797193472921</v>
+        <v>0.01345797193472902</v>
       </c>
       <c r="R68" t="n">
-        <v>0.2670961504911057</v>
+        <v>0.267096150491106</v>
       </c>
       <c r="S68" t="n">
-        <v>0.05972109709420408</v>
+        <v>0.05972109709420306</v>
       </c>
       <c r="T68" t="n">
-        <v>0.4074685786572752</v>
+        <v>0.4074685786572704</v>
       </c>
       <c r="U68" t="n">
-        <v>0.03925022087672092</v>
+        <v>0.03925022087672087</v>
       </c>
       <c r="V68" t="n">
-        <v>0.1436926330319206</v>
+        <v>0.1436926330319243</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002172700000002692</v>
+        <v>0.001669899999999558</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6073,16 +6073,16 @@
         <v>13.30627932709631</v>
       </c>
       <c r="E69" t="n">
-        <v>0.05158438344865271</v>
+        <v>0.05158438344863998</v>
       </c>
       <c r="F69" t="n">
-        <v>29.60888355369728</v>
+        <v>29.60888355369727</v>
       </c>
       <c r="G69" t="n">
         <v>98.53793518725557</v>
       </c>
       <c r="H69" t="n">
-        <v>13.02951627753295</v>
+        <v>13.02951627753294</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -6106,25 +6106,25 @@
         <v>34.02922446573668</v>
       </c>
       <c r="P69" t="n">
-        <v>29.76910082569797</v>
+        <v>29.76910082569796</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.01498958623937184</v>
+        <v>0.01498958623937067</v>
       </c>
       <c r="R69" t="n">
-        <v>0.3066472459201871</v>
+        <v>0.306647245920119</v>
       </c>
       <c r="S69" t="n">
-        <v>0.2014400078820871</v>
+        <v>0.2014400078820417</v>
       </c>
       <c r="T69" t="n">
-        <v>0.07428108051242135</v>
+        <v>0.07428108051242042</v>
       </c>
       <c r="U69" t="n">
-        <v>0.03898365249675688</v>
+        <v>0.03898365249675689</v>
       </c>
       <c r="V69" t="n">
-        <v>0.0995083096803631</v>
+        <v>0.0995083096803645</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.004626900000005207</v>
+        <v>0.002723799999998278</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6158,13 +6158,13 @@
         <v>359.98322572628</v>
       </c>
       <c r="F70" t="n">
-        <v>29.8872783366236</v>
+        <v>29.88727833662359</v>
       </c>
       <c r="G70" t="n">
-        <v>47.65146926547295</v>
+        <v>47.65146926547288</v>
       </c>
       <c r="H70" t="n">
-        <v>3.43258101072141</v>
+        <v>3.432581010721414</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6188,25 +6188,25 @@
         <v>7.968805438383493</v>
       </c>
       <c r="P70" t="n">
-        <v>30.3386574435499</v>
+        <v>30.33865744354991</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.01364723136447946</v>
+        <v>0.01364723136447936</v>
       </c>
       <c r="R70" t="n">
-        <v>0.2429806057271086</v>
+        <v>0.2429806057271105</v>
       </c>
       <c r="S70" t="n">
-        <v>0.0642345515979513</v>
+        <v>0.0642345515979498</v>
       </c>
       <c r="T70" t="n">
-        <v>0.3464476543535804</v>
+        <v>0.346447654353579</v>
       </c>
       <c r="U70" t="n">
         <v>0.04024232626924786</v>
       </c>
       <c r="V70" t="n">
-        <v>0.1018700710505638</v>
+        <v>0.101870071050559</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002156300000009992</v>
+        <v>0.001605500000000148</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6240,7 +6240,7 @@
         <v>0.03176986350069401</v>
       </c>
       <c r="F71" t="n">
-        <v>29.34574243787631</v>
+        <v>29.3457424378763</v>
       </c>
       <c r="G71" t="n">
         <v>53.24214112679241</v>
@@ -6261,7 +6261,7 @@
         <v>7</v>
       </c>
       <c r="M71" t="n">
-        <v>20.1658829375731</v>
+        <v>20.16588293757309</v>
       </c>
       <c r="N71" t="n">
         <v>38.87559435981993</v>
@@ -6270,25 +6270,25 @@
         <v>20.12440124126227</v>
       </c>
       <c r="P71" t="n">
-        <v>37.8955135045132</v>
+        <v>37.89551350451319</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.01540828379488477</v>
+        <v>0.01540828379488561</v>
       </c>
       <c r="R71" t="n">
-        <v>0.2944170272232264</v>
+        <v>0.2944170272232424</v>
       </c>
       <c r="S71" t="n">
-        <v>0.1635251843776006</v>
+        <v>0.1635251843776163</v>
       </c>
       <c r="T71" t="n">
-        <v>0.2090713344680734</v>
+        <v>0.2090713344680929</v>
       </c>
       <c r="U71" t="n">
-        <v>0.04182492606198176</v>
+        <v>0.04182492606198165</v>
       </c>
       <c r="V71" t="n">
-        <v>0.1294949154573734</v>
+        <v>0.1294949154573741</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.003660199999998781</v>
+        <v>0.00178629999999913</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6328,7 +6328,7 @@
         <v>167.1699185884838</v>
       </c>
       <c r="H72" t="n">
-        <v>13.41241873676169</v>
+        <v>13.41241873676168</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -6355,22 +6355,22 @@
         <v>12.45568373634973</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.0129752314641472</v>
+        <v>0.01297523146414836</v>
       </c>
       <c r="R72" t="n">
-        <v>0.1737769773356906</v>
+        <v>0.1737769773357253</v>
       </c>
       <c r="S72" t="n">
-        <v>0.06705113382502556</v>
+        <v>0.06705113382503958</v>
       </c>
       <c r="T72" t="n">
-        <v>0.07640007167512196</v>
+        <v>0.07640007167512018</v>
       </c>
       <c r="U72" t="n">
-        <v>0.04037731860708183</v>
+        <v>0.04037731860708175</v>
       </c>
       <c r="V72" t="n">
-        <v>0.04731749846711032</v>
+        <v>0.04731749846711066</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002545800000007148</v>
+        <v>0.001774100000002221</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6404,13 +6404,13 @@
         <v>0.01386055222605357</v>
       </c>
       <c r="F73" t="n">
-        <v>30.14250630991505</v>
+        <v>30.14250630991504</v>
       </c>
       <c r="G73" t="n">
-        <v>34.65707717526674</v>
+        <v>34.65707717526672</v>
       </c>
       <c r="H73" t="n">
-        <v>7.308236112679395</v>
+        <v>7.308236112679396</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6437,22 +6437,22 @@
         <v>35.28274745996708</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.01476437084152096</v>
+        <v>0.01476437084152131</v>
       </c>
       <c r="R73" t="n">
-        <v>0.2653598623243601</v>
+        <v>0.265359862324357</v>
       </c>
       <c r="S73" t="n">
-        <v>0.08816864331025494</v>
+        <v>0.08816864331025547</v>
       </c>
       <c r="T73" t="n">
-        <v>0.3318524998808612</v>
+        <v>0.3318524998808742</v>
       </c>
       <c r="U73" t="n">
-        <v>0.03915557840112954</v>
+        <v>0.03915557840112958</v>
       </c>
       <c r="V73" t="n">
-        <v>0.1538465426614592</v>
+        <v>0.1538465426614589</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002193399999995904</v>
+        <v>0.001812299999997435</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6492,7 +6492,7 @@
         <v>18.91650488548178</v>
       </c>
       <c r="H74" t="n">
-        <v>11.54087073195027</v>
+        <v>11.54087073195026</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -6519,22 +6519,22 @@
         <v>40.84306070987712</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.01493997854839019</v>
+        <v>0.01493997854839049</v>
       </c>
       <c r="R74" t="n">
-        <v>0.3040216692364473</v>
+        <v>0.3040216692364427</v>
       </c>
       <c r="S74" t="n">
-        <v>0.08675669959015396</v>
+        <v>0.08675669959015486</v>
       </c>
       <c r="T74" t="n">
-        <v>0.4391460153725706</v>
+        <v>0.4391460153725797</v>
       </c>
       <c r="U74" t="n">
         <v>0.04035672924941801</v>
       </c>
       <c r="V74" t="n">
-        <v>0.09681288319720131</v>
+        <v>0.09681288319720052</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001992999999998801</v>
+        <v>0.001442800000003075</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6574,7 +6574,7 @@
         <v>115.1860363175504</v>
       </c>
       <c r="H75" t="n">
-        <v>9.621180637068955</v>
+        <v>9.621180637068953</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6598,25 +6598,25 @@
         <v>26.96335118393381</v>
       </c>
       <c r="P75" t="n">
-        <v>25.60528092669201</v>
+        <v>25.605280926692</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.01494760259025113</v>
+        <v>0.01494760259025066</v>
       </c>
       <c r="R75" t="n">
-        <v>0.2691719685984896</v>
+        <v>0.2691719685984553</v>
       </c>
       <c r="S75" t="n">
-        <v>0.1405459902220981</v>
+        <v>0.1405459902220821</v>
       </c>
       <c r="T75" t="n">
-        <v>0.09030355564439407</v>
+        <v>0.09030355564439364</v>
       </c>
       <c r="U75" t="n">
-        <v>0.03642535711932118</v>
+        <v>0.03642535711932113</v>
       </c>
       <c r="V75" t="n">
-        <v>0.09276006028483796</v>
+        <v>0.09276006028483726</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002726899999998977</v>
+        <v>0.001982800000000395</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6653,7 +6653,7 @@
         <v>29.9159013319302</v>
       </c>
       <c r="G76" t="n">
-        <v>36.45827131860142</v>
+        <v>36.45827131860141</v>
       </c>
       <c r="H76" t="n">
         <v>12.34315677577103</v>
@@ -6683,22 +6683,22 @@
         <v>40.45834420191724</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.01567002940064201</v>
+        <v>0.01567002940064148</v>
       </c>
       <c r="R76" t="n">
-        <v>0.2974024709854379</v>
+        <v>0.2974024709854333</v>
       </c>
       <c r="S76" t="n">
-        <v>0.1334998526127507</v>
+        <v>0.1334998526127439</v>
       </c>
       <c r="T76" t="n">
-        <v>0.2950102210847872</v>
+        <v>0.2950102210847708</v>
       </c>
       <c r="U76" t="n">
-        <v>0.03642052473174477</v>
+        <v>0.03642052473174479</v>
       </c>
       <c r="V76" t="n">
-        <v>0.02494647656500168</v>
+        <v>0.02494647656499996</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.00251450000000375</v>
+        <v>0.001884600000000347</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6732,13 +6732,13 @@
         <v>359.9612944549236</v>
       </c>
       <c r="F77" t="n">
-        <v>30.3621776286827</v>
+        <v>30.36217762868269</v>
       </c>
       <c r="G77" t="n">
-        <v>100.2933784340429</v>
+        <v>100.293378434043</v>
       </c>
       <c r="H77" t="n">
-        <v>3.894179630599579</v>
+        <v>3.894179630599578</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6765,22 +6765,22 @@
         <v>27.5177663611747</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.01420857194358097</v>
+        <v>0.01420857194358135</v>
       </c>
       <c r="R77" t="n">
-        <v>0.2234944036172709</v>
+        <v>0.2234944036172704</v>
       </c>
       <c r="S77" t="n">
-        <v>0.07908641190861614</v>
+        <v>0.07908641190861718</v>
       </c>
       <c r="T77" t="n">
-        <v>0.2361810904570989</v>
+        <v>0.2361810904571064</v>
       </c>
       <c r="U77" t="n">
-        <v>0.03833666807838226</v>
+        <v>0.03833666807838229</v>
       </c>
       <c r="V77" t="n">
-        <v>0.1661823515425904</v>
+        <v>0.1661823515425881</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002161299999997368</v>
+        <v>0.001624600000003085</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6817,10 +6817,10 @@
         <v>29.91041464410441</v>
       </c>
       <c r="G78" t="n">
-        <v>55.95254458023307</v>
+        <v>55.95254458023308</v>
       </c>
       <c r="H78" t="n">
-        <v>12.81417022987558</v>
+        <v>12.81417022987557</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6847,22 +6847,22 @@
         <v>38.50158771864097</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.0158226559948385</v>
+        <v>0.01582265599483687</v>
       </c>
       <c r="R78" t="n">
-        <v>0.3097691452996695</v>
+        <v>0.3097691452995964</v>
       </c>
       <c r="S78" t="n">
-        <v>0.1765741778128271</v>
+        <v>0.1765741778127788</v>
       </c>
       <c r="T78" t="n">
-        <v>0.2040793959181099</v>
+        <v>0.2040793959180724</v>
       </c>
       <c r="U78" t="n">
         <v>0.03813596561712927</v>
       </c>
       <c r="V78" t="n">
-        <v>0.01331986306260773</v>
+        <v>0.01331986306260948</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.004703899999995542</v>
+        <v>0.001934500000000838</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6929,19 +6929,19 @@
         <v>15.62057796430298</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.01291398372374745</v>
+        <v>0.01291398372374723</v>
       </c>
       <c r="R79" t="n">
-        <v>0.1634230601199524</v>
+        <v>0.1634230601199577</v>
       </c>
       <c r="S79" t="n">
-        <v>0.06139330253956964</v>
+        <v>0.06139330253956971</v>
       </c>
       <c r="T79" t="n">
-        <v>0.1217799737776209</v>
+        <v>0.1217799737776178</v>
       </c>
       <c r="U79" t="n">
-        <v>0.03994584671113022</v>
+        <v>0.03994584671113019</v>
       </c>
       <c r="V79" t="n">
         <v>0.02268216158723286</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.002433100000004629</v>
+        <v>0.002312300000003376</v>
       </c>
       <c r="Y79" t="n">
         <v>9</v>
@@ -7008,25 +7008,25 @@
         <v>4.536502022769637</v>
       </c>
       <c r="P80" t="n">
-        <v>40.77932262583488</v>
+        <v>40.77932262583489</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.0140028395085246</v>
+        <v>0.01400283950852467</v>
       </c>
       <c r="R80" t="n">
-        <v>0.3791547078726301</v>
+        <v>0.3791547078726294</v>
       </c>
       <c r="S80" t="n">
-        <v>0.0608958444695115</v>
+        <v>0.06089584446951157</v>
       </c>
       <c r="T80" t="n">
         <v>0.6200383397013123</v>
       </c>
       <c r="U80" t="n">
-        <v>0.04017673451188203</v>
+        <v>0.04017673451188201</v>
       </c>
       <c r="V80" t="n">
-        <v>0.09718278766875338</v>
+        <v>0.09718278766875288</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.003573099999996998</v>
+        <v>0.001454500000001246</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7060,13 +7060,13 @@
         <v>359.9415713780722</v>
       </c>
       <c r="F81" t="n">
-        <v>30.23063932968745</v>
+        <v>30.23063932968746</v>
       </c>
       <c r="G81" t="n">
         <v>88.28152704651487</v>
       </c>
       <c r="H81" t="n">
-        <v>8.843008347952907</v>
+        <v>8.843008347952912</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7090,25 +7090,25 @@
         <v>22.80823888290209</v>
       </c>
       <c r="P81" t="n">
-        <v>30.30186889198423</v>
+        <v>30.30186889198425</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.01531035024746516</v>
+        <v>0.01531035024746533</v>
       </c>
       <c r="R81" t="n">
-        <v>0.2762173243314526</v>
+        <v>0.2762173243314591</v>
       </c>
       <c r="S81" t="n">
-        <v>0.1444050049313816</v>
+        <v>0.1444050049313859</v>
       </c>
       <c r="T81" t="n">
-        <v>0.1355107625201384</v>
+        <v>0.1355107625201405</v>
       </c>
       <c r="U81" t="n">
-        <v>0.03773771874060949</v>
+        <v>0.0377377187406095</v>
       </c>
       <c r="V81" t="n">
-        <v>0.1480710125856398</v>
+        <v>0.1480710125856423</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002431299999997805</v>
+        <v>0.00180289999999772</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7172,25 +7172,25 @@
         <v>29.28331315329816</v>
       </c>
       <c r="P82" t="n">
-        <v>30.05017792935832</v>
+        <v>30.05017792935831</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.01522707986551525</v>
+        <v>0.01522707986551706</v>
       </c>
       <c r="R82" t="n">
-        <v>0.2950204030109129</v>
+        <v>0.2950204030109685</v>
       </c>
       <c r="S82" t="n">
-        <v>0.1777777126855445</v>
+        <v>0.1777777126855846</v>
       </c>
       <c r="T82" t="n">
-        <v>0.09548079953221372</v>
+        <v>0.0954807995322229</v>
       </c>
       <c r="U82" t="n">
-        <v>0.03819020683990463</v>
+        <v>0.03819020683990471</v>
       </c>
       <c r="V82" t="n">
-        <v>0.05679075839827159</v>
+        <v>0.05679075839827256</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002690000000001191</v>
+        <v>0.002244299999997423</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7224,13 +7224,13 @@
         <v>0.04695019284966134</v>
       </c>
       <c r="F83" t="n">
-        <v>30.37542660406147</v>
+        <v>30.37542660406146</v>
       </c>
       <c r="G83" t="n">
-        <v>66.43618977725752</v>
+        <v>66.43618977725755</v>
       </c>
       <c r="H83" t="n">
-        <v>6.947785211323585</v>
+        <v>6.947785211323581</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7254,25 +7254,25 @@
         <v>15.86704876494568</v>
       </c>
       <c r="P83" t="n">
-        <v>32.32364726190563</v>
+        <v>32.32364726190562</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.0150758089320583</v>
+        <v>0.01507580893205901</v>
       </c>
       <c r="R83" t="n">
-        <v>0.2625857404317509</v>
+        <v>0.2625857404317831</v>
       </c>
       <c r="S83" t="n">
-        <v>0.1144128719549314</v>
+        <v>0.1144128719549508</v>
       </c>
       <c r="T83" t="n">
-        <v>0.2134091308874693</v>
+        <v>0.2134091308874845</v>
       </c>
       <c r="U83" t="n">
-        <v>0.04047063915603508</v>
+        <v>0.04047063915603509</v>
       </c>
       <c r="V83" t="n">
-        <v>0.1247789771469532</v>
+        <v>0.1247789771469551</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002197499999994079</v>
+        <v>0.001737500000000836</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7306,13 +7306,13 @@
         <v>359.9673731908338</v>
       </c>
       <c r="F84" t="n">
-        <v>30.00347157812651</v>
+        <v>30.00347157812653</v>
       </c>
       <c r="G84" t="n">
         <v>48.67269432151231</v>
       </c>
       <c r="H84" t="n">
-        <v>10.95180161829864</v>
+        <v>10.95180161829865</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -7336,25 +7336,25 @@
         <v>16.99432043919629</v>
       </c>
       <c r="P84" t="n">
-        <v>37.71241788126403</v>
+        <v>37.71241788126407</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.01563238622516822</v>
+        <v>0.0156323862251679</v>
       </c>
       <c r="R84" t="n">
-        <v>0.2918557627468603</v>
+        <v>0.2918557627468539</v>
       </c>
       <c r="S84" t="n">
-        <v>0.1426462406815378</v>
+        <v>0.1426462406815324</v>
       </c>
       <c r="T84" t="n">
-        <v>0.2378415399323774</v>
+        <v>0.2378415399323688</v>
       </c>
       <c r="U84" t="n">
-        <v>0.04311121218693433</v>
+        <v>0.04311121218693426</v>
       </c>
       <c r="V84" t="n">
-        <v>0.1066287346113399</v>
+        <v>0.1066287346113435</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002441000000004578</v>
+        <v>0.001807700000000523</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7388,7 +7388,7 @@
         <v>359.999968260459</v>
       </c>
       <c r="F85" t="n">
-        <v>29.70260829430881</v>
+        <v>29.7026082943088</v>
       </c>
       <c r="G85" t="n">
         <v>46.21024005224931</v>
@@ -7421,22 +7421,22 @@
         <v>37.82872542369373</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.01544421130103889</v>
+        <v>0.01544421130103898</v>
       </c>
       <c r="R85" t="n">
-        <v>0.2867740465662982</v>
+        <v>0.286774046566323</v>
       </c>
       <c r="S85" t="n">
-        <v>0.1387385516710112</v>
+        <v>0.1387385516710224</v>
       </c>
       <c r="T85" t="n">
-        <v>0.2443540490844954</v>
+        <v>0.2443540490845016</v>
       </c>
       <c r="U85" t="n">
-        <v>0.03960066927318254</v>
+        <v>0.03960066927318257</v>
       </c>
       <c r="V85" t="n">
-        <v>0.05860369766599006</v>
+        <v>0.05860369766599045</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002465299999997228</v>
+        <v>0.001796199999997583</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7470,13 +7470,13 @@
         <v>0.05590848497003553</v>
       </c>
       <c r="F86" t="n">
-        <v>30.32307770649009</v>
+        <v>30.32307770649008</v>
       </c>
       <c r="G86" t="n">
-        <v>8.220065679538026</v>
+        <v>8.22006567953804</v>
       </c>
       <c r="H86" t="n">
-        <v>7.27990851764862</v>
+        <v>7.27990851764861</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7500,25 +7500,25 @@
         <v>3.854147071323023</v>
       </c>
       <c r="P86" t="n">
-        <v>36.43524267382553</v>
+        <v>36.43524267382551</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.01325604015892583</v>
+        <v>0.0132560401589254</v>
       </c>
       <c r="R86" t="n">
-        <v>0.3853247923702406</v>
+        <v>0.385324792370239</v>
       </c>
       <c r="S86" t="n">
-        <v>0.049744778511268</v>
+        <v>0.04974477851126635</v>
       </c>
       <c r="T86" t="n">
-        <v>0.6232239979705404</v>
+        <v>0.6232239979705146</v>
       </c>
       <c r="U86" t="n">
-        <v>0.0446996265328469</v>
+        <v>0.04469962653284688</v>
       </c>
       <c r="V86" t="n">
-        <v>0.06932729361418474</v>
+        <v>0.06932729361418666</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001979700000006801</v>
+        <v>0.00149019999999922</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7552,13 +7552,13 @@
         <v>0.01370931843075694</v>
       </c>
       <c r="F87" t="n">
-        <v>30.01397145808174</v>
+        <v>30.01397145808175</v>
       </c>
       <c r="G87" t="n">
         <v>111.4797142904573</v>
       </c>
       <c r="H87" t="n">
-        <v>9.104413504025635</v>
+        <v>9.104413504025636</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7585,22 +7585,22 @@
         <v>26.00216409251808</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.01474319319503597</v>
+        <v>0.01474319319503543</v>
       </c>
       <c r="R87" t="n">
-        <v>0.2618547688764631</v>
+        <v>0.2618547688764584</v>
       </c>
       <c r="S87" t="n">
-        <v>0.1363241294855885</v>
+        <v>0.1363241294855826</v>
       </c>
       <c r="T87" t="n">
-        <v>0.09720833012456787</v>
+        <v>0.09720833012456526</v>
       </c>
       <c r="U87" t="n">
-        <v>0.04082968391194866</v>
+        <v>0.04082968391194854</v>
       </c>
       <c r="V87" t="n">
-        <v>0.01207369310277729</v>
+        <v>0.01207369310277703</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.004350999999999772</v>
+        <v>0.00196470000000204</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7634,7 +7634,7 @@
         <v>359.9938287605762</v>
       </c>
       <c r="F88" t="n">
-        <v>30.01267673618964</v>
+        <v>30.01267673618963</v>
       </c>
       <c r="G88" t="n">
         <v>37.81100698670369</v>
@@ -7664,25 +7664,25 @@
         <v>8.859650981918804</v>
       </c>
       <c r="P88" t="n">
-        <v>32.79175692417834</v>
+        <v>32.79175692417833</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.01420831571112758</v>
+        <v>0.01420831571112762</v>
       </c>
       <c r="R88" t="n">
-        <v>0.2528815782886594</v>
+        <v>0.252881578288658</v>
       </c>
       <c r="S88" t="n">
-        <v>0.07461573058103722</v>
+        <v>0.07461573058103588</v>
       </c>
       <c r="T88" t="n">
         <v>0.3416322374729261</v>
       </c>
       <c r="U88" t="n">
-        <v>0.04053303288631999</v>
+        <v>0.04053303288631995</v>
       </c>
       <c r="V88" t="n">
-        <v>0.1463212183876319</v>
+        <v>0.1463212183876327</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.00219270000000904</v>
+        <v>0.001603100000000524</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,13 +7716,13 @@
         <v>0.002515918935281276</v>
       </c>
       <c r="F89" t="n">
-        <v>30.05827810570059</v>
+        <v>30.05827810570061</v>
       </c>
       <c r="G89" t="n">
-        <v>118.2485481535663</v>
+        <v>118.2485481535662</v>
       </c>
       <c r="H89" t="n">
-        <v>14.48655125582942</v>
+        <v>14.48655125582943</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7746,25 +7746,25 @@
         <v>40.62873235549301</v>
       </c>
       <c r="P89" t="n">
-        <v>25.31696433617197</v>
+        <v>25.31696433617198</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.01501531926450568</v>
+        <v>0.0150153192645068</v>
       </c>
       <c r="R89" t="n">
-        <v>0.3172418381893927</v>
+        <v>0.3172418381894732</v>
       </c>
       <c r="S89" t="n">
-        <v>0.2029976703713407</v>
+        <v>0.2029976703713894</v>
       </c>
       <c r="T89" t="n">
-        <v>0.07182787826530555</v>
+        <v>0.07182787826531545</v>
       </c>
       <c r="U89" t="n">
-        <v>0.04036958008175297</v>
+        <v>0.040369580081753</v>
       </c>
       <c r="V89" t="n">
-        <v>0.01085956787126506</v>
+        <v>0.01085956787126557</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.004495700000006764</v>
+        <v>0.002787499999996612</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7798,13 +7798,13 @@
         <v>0.001334556813723561</v>
       </c>
       <c r="F90" t="n">
-        <v>30.3871736794974</v>
+        <v>30.38717367949742</v>
       </c>
       <c r="G90" t="n">
         <v>116.3155947170912</v>
       </c>
       <c r="H90" t="n">
-        <v>9.230112153050211</v>
+        <v>9.23011215305022</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7828,25 +7828,25 @@
         <v>25.89781540851746</v>
       </c>
       <c r="P90" t="n">
-        <v>25.41267489487097</v>
+        <v>25.41267489487099</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.01487364848601464</v>
+        <v>0.01487364848601431</v>
       </c>
       <c r="R90" t="n">
-        <v>0.2644295698341707</v>
+        <v>0.264429569834165</v>
       </c>
       <c r="S90" t="n">
-        <v>0.1347178246744486</v>
+        <v>0.1347178246744442</v>
       </c>
       <c r="T90" t="n">
-        <v>0.09492152186896725</v>
+        <v>0.0949215218689658</v>
       </c>
       <c r="U90" t="n">
-        <v>0.03984815489991073</v>
+        <v>0.03984815489991083</v>
       </c>
       <c r="V90" t="n">
-        <v>0.07496949634506797</v>
+        <v>0.07496949634507136</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002701900000005253</v>
+        <v>0.002015600000000006</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7883,10 +7883,10 @@
         <v>30.00413519697029</v>
       </c>
       <c r="G91" t="n">
-        <v>92.28118916828264</v>
+        <v>92.28118916828269</v>
       </c>
       <c r="H91" t="n">
-        <v>5.975869178848358</v>
+        <v>5.97586917884836</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7913,22 +7913,22 @@
         <v>28.36252767662792</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.01456672442357262</v>
+        <v>0.01456672442357213</v>
       </c>
       <c r="R91" t="n">
-        <v>0.2403478384029596</v>
+        <v>0.2403478384029534</v>
       </c>
       <c r="S91" t="n">
-        <v>0.1054030997334732</v>
+        <v>0.1054030997334683</v>
       </c>
       <c r="T91" t="n">
-        <v>0.1742499532029724</v>
+        <v>0.1742499532029649</v>
       </c>
       <c r="U91" t="n">
-        <v>0.04157866667330847</v>
+        <v>0.04157866667330844</v>
       </c>
       <c r="V91" t="n">
-        <v>0.1184757287086803</v>
+        <v>0.118475728708681</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.001930599999994342</v>
+        <v>0.001441199999998588</v>
       </c>
       <c r="Y91" t="n">
         <v>7</v>
@@ -7965,10 +7965,10 @@
         <v>29.61762925359068</v>
       </c>
       <c r="G92" t="n">
-        <v>25.58823703185699</v>
+        <v>25.58823703185697</v>
       </c>
       <c r="H92" t="n">
-        <v>5.248710370416014</v>
+        <v>5.248710370416019</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7989,28 +7989,28 @@
         <v>32.8194763419126</v>
       </c>
       <c r="O92" t="n">
-        <v>6.771605667686361</v>
+        <v>6.771605667686347</v>
       </c>
       <c r="P92" t="n">
         <v>32.91156188537401</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.01355895102120167</v>
+        <v>0.01355895102120159</v>
       </c>
       <c r="R92" t="n">
-        <v>0.2680897317285799</v>
+        <v>0.2680897317285788</v>
       </c>
       <c r="S92" t="n">
-        <v>0.06206043598794204</v>
+        <v>0.0620604359879417</v>
       </c>
       <c r="T92" t="n">
-        <v>0.40720317451853</v>
+        <v>0.4072031745185252</v>
       </c>
       <c r="U92" t="n">
-        <v>0.04286170602481577</v>
+        <v>0.04286170602481578</v>
       </c>
       <c r="V92" t="n">
-        <v>0.2428902566904008</v>
+        <v>0.2428902566904109</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002243699999993964</v>
+        <v>0.002277299999999371</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8047,10 +8047,10 @@
         <v>29.73188656409655</v>
       </c>
       <c r="G93" t="n">
-        <v>35.83780362698737</v>
+        <v>35.83780362698739</v>
       </c>
       <c r="H93" t="n">
-        <v>6.978415426274035</v>
+        <v>6.97841542627403</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8074,25 +8074,25 @@
         <v>10.12802466090392</v>
       </c>
       <c r="P93" t="n">
-        <v>34.44089665035107</v>
+        <v>34.44089665035106</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.014507570386264</v>
+        <v>0.01450757038626442</v>
       </c>
       <c r="R93" t="n">
-        <v>0.2561780833134902</v>
+        <v>0.2561780833134922</v>
       </c>
       <c r="S93" t="n">
-        <v>0.0856498493594099</v>
+        <v>0.08564984935941243</v>
       </c>
       <c r="T93" t="n">
-        <v>0.3204968072133668</v>
+        <v>0.3204968072133785</v>
       </c>
       <c r="U93" t="n">
-        <v>0.03761912402923074</v>
+        <v>0.03761912402923073</v>
       </c>
       <c r="V93" t="n">
-        <v>0.03013448698333874</v>
+        <v>0.03013448698333678</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002180100000003904</v>
+        <v>0.001701000000000619</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8156,25 +8156,25 @@
         <v>25.62857774327988</v>
       </c>
       <c r="P94" t="n">
-        <v>14.35719775163995</v>
+        <v>14.35719775163996</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.01327487061751009</v>
+        <v>0.01327487061751069</v>
       </c>
       <c r="R94" t="n">
-        <v>0.1960585532806881</v>
+        <v>0.1960585532807128</v>
       </c>
       <c r="S94" t="n">
-        <v>0.08084800875495399</v>
+        <v>0.08084800875496383</v>
       </c>
       <c r="T94" t="n">
-        <v>0.07215342725146112</v>
+        <v>0.0721534272514603</v>
       </c>
       <c r="U94" t="n">
         <v>0.03558232963623164</v>
       </c>
       <c r="V94" t="n">
-        <v>0.08083069693437088</v>
+        <v>0.0808306969343712</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002746300000012525</v>
+        <v>0.002042599999999339</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8208,10 +8208,10 @@
         <v>359.9910333487554</v>
       </c>
       <c r="F95" t="n">
-        <v>29.72269477318545</v>
+        <v>29.72269477318543</v>
       </c>
       <c r="G95" t="n">
-        <v>109.1069809876824</v>
+        <v>109.1069809876825</v>
       </c>
       <c r="H95" t="n">
         <v>10.77102427980776</v>
@@ -8238,25 +8238,25 @@
         <v>30.32168864525502</v>
       </c>
       <c r="P95" t="n">
-        <v>26.50064655594168</v>
+        <v>26.50064655594166</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.01482871213238529</v>
+        <v>0.01482871213238347</v>
       </c>
       <c r="R95" t="n">
-        <v>0.2770575145214295</v>
+        <v>0.2770575145213927</v>
       </c>
       <c r="S95" t="n">
-        <v>0.1592399429661197</v>
+        <v>0.1592399429660916</v>
       </c>
       <c r="T95" t="n">
-        <v>0.0788516699997589</v>
+        <v>0.07885166999975556</v>
       </c>
       <c r="U95" t="n">
-        <v>0.03599129135546327</v>
+        <v>0.03599129135546335</v>
       </c>
       <c r="V95" t="n">
-        <v>0.04767017082436692</v>
+        <v>0.04767017082436854</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002733699999993178</v>
+        <v>0.002096399999999221</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8323,22 +8323,22 @@
         <v>22.12946581336481</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.01435126419123165</v>
+        <v>0.01435126419123225</v>
       </c>
       <c r="R96" t="n">
-        <v>0.2492324070561561</v>
+        <v>0.2492324070561835</v>
       </c>
       <c r="S96" t="n">
-        <v>0.126585238408231</v>
+        <v>0.1265852384082447</v>
       </c>
       <c r="T96" t="n">
-        <v>0.07561278038499196</v>
+        <v>0.07561278038499221</v>
       </c>
       <c r="U96" t="n">
-        <v>0.03983988481369823</v>
+        <v>0.03983988481369827</v>
       </c>
       <c r="V96" t="n">
-        <v>0.04962181783469606</v>
+        <v>0.04962181783469649</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002961999999996578</v>
+        <v>0.002134399999999204</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8375,10 +8375,10 @@
         <v>30.02396031914122</v>
       </c>
       <c r="G97" t="n">
-        <v>40.58077502583249</v>
+        <v>40.58077502583252</v>
       </c>
       <c r="H97" t="n">
-        <v>5.395998740572416</v>
+        <v>5.395998740572412</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8402,25 +8402,25 @@
         <v>9.444371004803303</v>
       </c>
       <c r="P97" t="n">
-        <v>32.76962309770815</v>
+        <v>32.76962309770813</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.01431683307516167</v>
+        <v>0.01431683307516168</v>
       </c>
       <c r="R97" t="n">
-        <v>0.2508274610294235</v>
+        <v>0.2508274610294198</v>
       </c>
       <c r="S97" t="n">
-        <v>0.07798201440896181</v>
+        <v>0.07798201440896031</v>
       </c>
       <c r="T97" t="n">
-        <v>0.3260249132590362</v>
+        <v>0.326024913259035</v>
       </c>
       <c r="U97" t="n">
-        <v>0.03775576505274304</v>
+        <v>0.03775576505274306</v>
       </c>
       <c r="V97" t="n">
-        <v>0.07481091544492111</v>
+        <v>0.07481091544491758</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002355199999996671</v>
+        <v>0.001621499999998832</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8457,10 +8457,10 @@
         <v>29.81703832377729</v>
       </c>
       <c r="G98" t="n">
-        <v>39.16592568129251</v>
+        <v>39.1659256812925</v>
       </c>
       <c r="H98" t="n">
-        <v>13.44594075678543</v>
+        <v>13.44594075678544</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -8484,25 +8484,25 @@
         <v>15.99742629298044</v>
       </c>
       <c r="P98" t="n">
-        <v>41.31033899510399</v>
+        <v>41.31033899510401</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.0157490386353285</v>
+        <v>0.01574903863532768</v>
       </c>
       <c r="R98" t="n">
-        <v>0.3058191303065713</v>
+        <v>0.3058191303065547</v>
       </c>
       <c r="S98" t="n">
-        <v>0.1501662531646997</v>
+        <v>0.1501662531646851</v>
       </c>
       <c r="T98" t="n">
-        <v>0.2800244145803149</v>
+        <v>0.2800244145802899</v>
       </c>
       <c r="U98" t="n">
-        <v>0.03869274608799087</v>
+        <v>0.03869274608799083</v>
       </c>
       <c r="V98" t="n">
-        <v>0.1291694372055485</v>
+        <v>0.129169437205546</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.003780300000002512</v>
+        <v>0.001830400000002896</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8536,7 +8536,7 @@
         <v>0.04654655473975597</v>
       </c>
       <c r="F99" t="n">
-        <v>29.71011160348338</v>
+        <v>29.71011160348339</v>
       </c>
       <c r="G99" t="n">
         <v>151.0953166987131</v>
@@ -8563,28 +8563,28 @@
         <v>15.53497559712574</v>
       </c>
       <c r="O99" t="n">
-        <v>38.98442247901149</v>
+        <v>38.98442247901148</v>
       </c>
       <c r="P99" t="n">
-        <v>15.26421494332577</v>
+        <v>15.26421494332578</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.01388557214396688</v>
+        <v>0.01388557214396757</v>
       </c>
       <c r="R99" t="n">
-        <v>0.2580079545802094</v>
+        <v>0.2580079545802673</v>
       </c>
       <c r="S99" t="n">
-        <v>0.121408459694084</v>
+        <v>0.1214084596941067</v>
       </c>
       <c r="T99" t="n">
-        <v>0.09163819247280275</v>
+        <v>0.0916381924728229</v>
       </c>
       <c r="U99" t="n">
-        <v>0.03923449683284472</v>
+        <v>0.03923449683284461</v>
       </c>
       <c r="V99" t="n">
-        <v>0.07678615472142139</v>
+        <v>0.07678615472142043</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.003329300000004309</v>
+        <v>0.002255999999999148</v>
       </c>
       <c r="Y99" t="n">
         <v>11</v>
@@ -8624,7 +8624,7 @@
         <v>133.2090907102797</v>
       </c>
       <c r="H100" t="n">
-        <v>9.618471665720318</v>
+        <v>9.618471665720319</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -8651,22 +8651,22 @@
         <v>21.23314166194476</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.01395093295236169</v>
+        <v>0.01395093295236296</v>
       </c>
       <c r="R100" t="n">
-        <v>0.2329328555603822</v>
+        <v>0.2329328555604397</v>
       </c>
       <c r="S100" t="n">
-        <v>0.1141223466448163</v>
+        <v>0.1141223466448451</v>
       </c>
       <c r="T100" t="n">
-        <v>0.07912238881151434</v>
+        <v>0.07912238881151265</v>
       </c>
       <c r="U100" t="n">
-        <v>0.04348765421221749</v>
+        <v>0.04348765421221747</v>
       </c>
       <c r="V100" t="n">
-        <v>0.146134403539155</v>
+        <v>0.1461344035391549</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002647899999999481</v>
+        <v>0.001874099999998435</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8706,7 +8706,7 @@
         <v>120.669276698849</v>
       </c>
       <c r="H101" t="n">
-        <v>8.93454197026424</v>
+        <v>8.934541970264238</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8727,28 +8727,28 @@
         <v>24.19989479699868</v>
       </c>
       <c r="O101" t="n">
-        <v>25.15277294279967</v>
+        <v>25.15277294279966</v>
       </c>
       <c r="P101" t="n">
         <v>24.42289290628345</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.01470800414136096</v>
+        <v>0.0147080041413603</v>
       </c>
       <c r="R101" t="n">
-        <v>0.2533285350947296</v>
+        <v>0.2533285350947139</v>
       </c>
       <c r="S101" t="n">
-        <v>0.1256959441236866</v>
+        <v>0.1256959441236756</v>
       </c>
       <c r="T101" t="n">
-        <v>0.09534523390217971</v>
+        <v>0.09534523390217922</v>
       </c>
       <c r="U101" t="n">
-        <v>0.03887871292651697</v>
+        <v>0.03887871292651695</v>
       </c>
       <c r="V101" t="n">
-        <v>0.04972035413928169</v>
+        <v>0.04972035413928119</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.00244389999998873</v>
+        <v>0.001798199999999639</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>
